--- a/2023/netherlands_eredivisie_2023-2024.xlsx
+++ b/2023/netherlands_eredivisie_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V62"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5541,71 +5541,71 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>1.51</v>
+        <v>1.06</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>23/09/2023 19:12</t>
+          <t>27/09/2023 18:12</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
+          <t>30/09/2023 14:21</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>25.88</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="N56" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>23/09/2023 19:12</t>
-        </is>
-      </c>
-      <c r="P56" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Q56" t="inlineStr">
+      <c r="R56" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>42.53</v>
+      </c>
+      <c r="U56" t="inlineStr">
         <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="R56" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>23/09/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T56" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>30/09/2023 18:44</t>
-        </is>
-      </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/utrecht-almere-city/dv2Y7wMf/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-fc-volendam/EFCT8J6l/</t>
         </is>
       </c>
     </row>
@@ -5633,46 +5633,46 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>1.06</v>
+        <v>1.51</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>27/09/2023 18:12</t>
+          <t>23/09/2023 19:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 18:44</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>17.77</v>
+        <v>4.75</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>27/09/2023 18:12</t>
+          <t>23/09/2023 19:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>25.88</v>
+        <v>4.4</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -5680,15 +5680,15 @@
         </is>
       </c>
       <c r="R57" t="n">
-        <v>24.06</v>
+        <v>5.79</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>27/09/2023 18:12</t>
+          <t>23/09/2023 19:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>42.53</v>
+        <v>5.93</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-fc-volendam/EFCT8J6l/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/utrecht-almere-city/dv2Y7wMf/</t>
         </is>
       </c>
     </row>
@@ -6158,6 +6158,98 @@
       <c r="V62" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/netherlands/eredivisie/az-alkmaar-sittard/EZWhBCSn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45205.83333333334</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>FC Volendam</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>30/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:59</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>4</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>30/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:59</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>30/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:59</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/fc-volendam-utrecht/SxycAWsg/</t>
         </is>
       </c>
     </row>

--- a/2023/netherlands_eredivisie_2023-2024.xlsx
+++ b/2023/netherlands_eredivisie_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V63"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>6.57</v>
+        <v>4.17</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4.81</v>
+        <v>6.58</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>03/09/2023 14:29</t>
+          <t>03/09/2023 14:28</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>5.43</v>
+        <v>4.3</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>4.32</v>
+        <v>5.07</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>03/09/2023 14:29</t>
+          <t>03/09/2023 14:26</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>1.43</v>
+        <v>1.78</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>1.69</v>
+        <v>1.47</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>03/09/2023 14:29</t>
+          <t>03/09/2023 13:55</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-ajax/0UuQjoo3/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/fc-volendam-twente/MwsMiRVd/</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -3341,14 +3341,14 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>4.17</v>
+        <v>6.57</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>6.58</v>
+        <v>4.81</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>03/09/2023 14:28</t>
+          <t>03/09/2023 14:29</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>4.3</v>
+        <v>5.43</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>5.07</v>
+        <v>4.32</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>03/09/2023 14:26</t>
+          <t>03/09/2023 14:29</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>1.78</v>
+        <v>1.43</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>1.47</v>
+        <v>1.69</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>03/09/2023 13:55</t>
+          <t>03/09/2023 14:29</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/fc-volendam-twente/MwsMiRVd/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-ajax/0UuQjoo3/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Waalwijk</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>AZ Alkmaar</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>3</v>
-      </c>
       <c r="J49" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:43</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
         <v>4.72</v>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>24/09/2023 16:39</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="P49" t="n">
-        <v>4.03</v>
-      </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>24/09/2023 16:39</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>1.77</v>
+        <v>1.53</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>24/09/2023 16:39</t>
+          <t>24/09/2023 16:38</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-az-alkmaar/ATQ3hbM7/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/waalwijk-twente/OWEoHsa8/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Waalwijk</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>4.49</v>
+        <v>4.72</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>6.03</v>
+        <v>4.63</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>24/09/2023 16:43</t>
+          <t>24/09/2023 16:39</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>4.43</v>
+        <v>4.32</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4.72</v>
+        <v>4.03</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:39</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1.53</v>
+        <v>1.77</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>24/09/2023 16:38</t>
+          <t>24/09/2023 16:39</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/waalwijk-twente/OWEoHsa8/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-az-alkmaar/ATQ3hbM7/</t>
         </is>
       </c>
     </row>
@@ -6250,6 +6250,374 @@
       <c r="V63" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/netherlands/eredivisie/fc-volendam-utrecht/SxycAWsg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45206.6875</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>01/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:28</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>01/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:28</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>01/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:28</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/heerenveen-nijmegen/A1Q19jca/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45206.78125</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Waalwijk</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/almere-city-waalwijk/lhP58AC5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45206.83333333334</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>G.A. Eagles</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>4</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:57</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:57</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:57</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/g-a-eagles-heracles/IRT97URB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45206.875</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:52</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:52</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:52</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/vitesse-excelsior/dISD6lsI/</t>
         </is>
       </c>
     </row>

--- a/2023/netherlands_eredivisie_2023-2024.xlsx
+++ b/2023/netherlands_eredivisie_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>G.A. Eagles</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.19</v>
+        <v>1.54</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:25</t>
+          <t>13/08/2023 14:27</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>7.61</v>
+        <v>5.51</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>7.38</v>
+        <v>4.41</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:29</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>12.86</v>
+        <v>7.89</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>16.76</v>
+        <v>6.35</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:29</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/feyenoord-sittard/6ZGlMZuC/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/az-alkmaar-g-a-eagles/SrIpNFQ5/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>G.A. Eagles</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.54</v>
+        <v>1.19</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>13/08/2023 14:27</t>
+          <t>13/08/2023 14:25</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>5.51</v>
+        <v>7.61</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>4.41</v>
+        <v>7.38</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:29</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>7.89</v>
+        <v>12.86</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>6.35</v>
+        <v>16.76</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:29</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/az-alkmaar-g-a-eagles/SrIpNFQ5/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/feyenoord-sittard/6ZGlMZuC/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.24</v>
+        <v>1.67</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.15</v>
+        <v>1.47</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>16/09/2023 19:38</t>
+          <t>16/09/2023 19:59</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>7.01</v>
+        <v>4.44</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>9.119999999999999</v>
+        <v>4.96</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>16/09/2023 19:57</t>
+          <t>16/09/2023 19:59</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>11.5</v>
+        <v>4.56</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>17.78</v>
+        <v>6.75</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>16/09/2023 19:57</t>
+          <t>16/09/2023 19:59</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-nijmegen/8zF9rNhq/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-fc-volendam/StXtm3pS/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.67</v>
+        <v>1.24</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.47</v>
+        <v>1.15</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>16/09/2023 19:59</t>
+          <t>16/09/2023 19:38</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>4.44</v>
+        <v>7.01</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>4.96</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>16/09/2023 19:59</t>
+          <t>16/09/2023 19:57</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.56</v>
+        <v>11.5</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>6.75</v>
+        <v>17.78</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>16/09/2023 19:59</t>
+          <t>16/09/2023 19:57</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-fc-volendam/StXtm3pS/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-nijmegen/8zF9rNhq/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Waalwijk</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>4.49</v>
+        <v>4.72</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>6.03</v>
+        <v>4.63</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>24/09/2023 16:43</t>
+          <t>24/09/2023 16:39</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>4.43</v>
+        <v>4.32</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4.72</v>
+        <v>4.03</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:39</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>1.53</v>
+        <v>1.77</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>24/09/2023 16:38</t>
+          <t>24/09/2023 16:39</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/waalwijk-twente/OWEoHsa8/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-az-alkmaar/ATQ3hbM7/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Waalwijk</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>AZ Alkmaar</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
       <c r="J50" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:43</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
         <v>4.72</v>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>24/09/2023 16:39</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="P50" t="n">
-        <v>4.03</v>
-      </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>24/09/2023 16:39</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1.77</v>
+        <v>1.53</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>24/09/2023 16:39</t>
+          <t>24/09/2023 16:38</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-az-alkmaar/ATQ3hbM7/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/waalwijk-twente/OWEoHsa8/</t>
         </is>
       </c>
     </row>
@@ -6618,6 +6618,282 @@
       <c r="V67" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/netherlands/eredivisie/vitesse-excelsior/dISD6lsI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45207.51041666666</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Zwolle</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:14</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:14</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:14</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-feyenoord/vsII58dO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45207.60416666666</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>2</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:29</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:29</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:29</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/ajax-az-alkmaar/jHLM4SBU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45207.60416666666</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sittard</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>3</v>
+      </c>
+      <c r="J70" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:29</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:29</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:29</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-twente/SxcSPBst/</t>
         </is>
       </c>
     </row>

--- a/2023/netherlands_eredivisie_2023-2024.xlsx
+++ b/2023/netherlands_eredivisie_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Waalwijk</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>AZ Alkmaar</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>3</v>
-      </c>
       <c r="J49" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:43</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
         <v>4.72</v>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>24/09/2023 16:39</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="P49" t="n">
-        <v>4.03</v>
-      </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>24/09/2023 16:39</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>1.77</v>
+        <v>1.53</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>24/09/2023 16:39</t>
+          <t>24/09/2023 16:38</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-az-alkmaar/ATQ3hbM7/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/waalwijk-twente/OWEoHsa8/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Waalwijk</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>4.49</v>
+        <v>4.72</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>6.03</v>
+        <v>4.63</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>24/09/2023 16:43</t>
+          <t>24/09/2023 16:39</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>4.43</v>
+        <v>4.32</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4.72</v>
+        <v>4.03</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:39</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1.53</v>
+        <v>1.77</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>24/09/2023 16:38</t>
+          <t>24/09/2023 16:39</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/waalwijk-twente/OWEoHsa8/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-az-alkmaar/ATQ3hbM7/</t>
         </is>
       </c>
     </row>
@@ -5541,46 +5541,46 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>1.06</v>
+        <v>1.51</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>27/09/2023 18:12</t>
+          <t>23/09/2023 19:12</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 18:44</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>17.77</v>
+        <v>4.75</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>27/09/2023 18:12</t>
+          <t>23/09/2023 19:12</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>25.88</v>
+        <v>4.4</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5588,15 +5588,15 @@
         </is>
       </c>
       <c r="R56" t="n">
-        <v>24.06</v>
+        <v>5.79</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>27/09/2023 18:12</t>
+          <t>23/09/2023 19:12</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>42.53</v>
+        <v>5.93</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-fc-volendam/EFCT8J6l/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/utrecht-almere-city/dv2Y7wMf/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1.51</v>
+        <v>1.06</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>23/09/2023 19:12</t>
+          <t>27/09/2023 18:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
+          <t>30/09/2023 14:21</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>25.88</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="N57" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>23/09/2023 19:12</t>
-        </is>
-      </c>
-      <c r="P57" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Q57" t="inlineStr">
+      <c r="R57" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>42.53</v>
+      </c>
+      <c r="U57" t="inlineStr">
         <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="R57" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>23/09/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T57" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>30/09/2023 18:44</t>
-        </is>
-      </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/utrecht-almere-city/dv2Y7wMf/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-fc-volendam/EFCT8J6l/</t>
         </is>
       </c>
     </row>
@@ -6894,6 +6894,98 @@
       <c r="V70" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-twente/SxcSPBst/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45207.69791666666</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>4</v>
+      </c>
+      <c r="J71" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:40</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:40</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:18</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sparta-rotterdam-psv/6TeWOVdn/</t>
         </is>
       </c>
     </row>

--- a/2023/netherlands_eredivisie_2023-2024.xlsx
+++ b/2023/netherlands_eredivisie_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.67</v>
+        <v>1.24</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.47</v>
+        <v>1.15</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>16/09/2023 19:59</t>
+          <t>16/09/2023 19:38</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>4.44</v>
+        <v>7.01</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>4.96</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>16/09/2023 19:59</t>
+          <t>16/09/2023 19:57</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>4.56</v>
+        <v>11.5</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>6.75</v>
+        <v>17.78</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>16/09/2023 19:59</t>
+          <t>16/09/2023 19:57</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-fc-volendam/StXtm3pS/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-nijmegen/8zF9rNhq/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.24</v>
+        <v>1.67</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.15</v>
+        <v>1.47</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>16/09/2023 19:38</t>
+          <t>16/09/2023 19:59</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>7.01</v>
+        <v>4.44</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>9.119999999999999</v>
+        <v>4.96</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>16/09/2023 19:57</t>
+          <t>16/09/2023 19:59</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>11.5</v>
+        <v>4.56</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>17.78</v>
+        <v>6.75</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>16/09/2023 19:57</t>
+          <t>16/09/2023 19:59</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-nijmegen/8zF9rNhq/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-fc-volendam/StXtm3pS/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Heracles</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,63 +5917,63 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>2.83</v>
+        <v>2.09</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>28/09/2023 19:12</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3.17</v>
+        <v>2.44</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>01/10/2023 14:20</t>
+          <t>01/10/2023 14:24</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.52</v>
+        <v>4.05</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>28/09/2023 19:12</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.54</v>
+        <v>3.69</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>01/10/2023 14:20</t>
+          <t>01/10/2023 14:27</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.49</v>
+        <v>3.19</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>28/09/2023 19:12</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.33</v>
+        <v>2.88</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>01/10/2023 14:20</t>
+          <t>01/10/2023 14:27</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-sparta-rotterdam/KCXlChDt/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/heracles-zwolle/rmALTKrE/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Heracles</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,63 +6009,63 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>2.09</v>
+        <v>2.83</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>28/09/2023 19:12</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.44</v>
+        <v>3.17</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:24</t>
+          <t>01/10/2023 14:20</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>4.05</v>
+        <v>3.52</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>28/09/2023 19:12</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.69</v>
+        <v>3.54</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:27</t>
+          <t>01/10/2023 14:20</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.19</v>
+        <v>2.49</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>28/09/2023 19:12</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.88</v>
+        <v>2.33</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:27</t>
+          <t>01/10/2023 14:20</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/heracles-zwolle/rmALTKrE/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-sparta-rotterdam/KCXlChDt/</t>
         </is>
       </c>
     </row>
@@ -6986,6 +6986,466 @@
       <c r="V71" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/netherlands/eredivisie/sparta-rotterdam-psv/6TeWOVdn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45220.78125</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>3</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Sittard</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:02</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:41</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>17.33</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:41</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-sittard/2ekuN9Rb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45220.78125</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Waalwijk</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>FC Volendam</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:44</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:41</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:44</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/waalwijk-fc-volendam/dIlqMTt5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45220.83333333334</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>21/10/2023 19:55</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>21/10/2023 19:55</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>21/10/2023 19:55</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/nijmegen-almere-city/ALhmLmdB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45220.875</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:58</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/az-alkmaar-heerenveen/hprhK7BH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45220.875</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>4</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:47</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>20.67</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/feyenoord-vitesse/O4jyOkCh/</t>
         </is>
       </c>
     </row>

--- a/2023/netherlands_eredivisie_2023-2024.xlsx
+++ b/2023/netherlands_eredivisie_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>G.A. Eagles</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.54</v>
+        <v>1.19</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:27</t>
+          <t>13/08/2023 14:25</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>5.51</v>
+        <v>7.61</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>4.41</v>
+        <v>7.38</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:29</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>7.89</v>
+        <v>12.86</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>6.35</v>
+        <v>16.76</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:29</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/az-alkmaar-g-a-eagles/SrIpNFQ5/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/feyenoord-sittard/6ZGlMZuC/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>G.A. Eagles</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.19</v>
+        <v>1.54</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>13/08/2023 14:25</t>
+          <t>13/08/2023 14:27</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>7.61</v>
+        <v>5.51</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>7.38</v>
+        <v>4.41</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>13/08/2023 14:29</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>12.86</v>
+        <v>7.89</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>16.76</v>
+        <v>6.35</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>13/08/2023 14:29</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/feyenoord-sittard/6ZGlMZuC/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/az-alkmaar-g-a-eagles/SrIpNFQ5/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>4.17</v>
+        <v>6.57</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>6.58</v>
+        <v>4.81</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>03/09/2023 14:28</t>
+          <t>03/09/2023 14:29</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4.3</v>
+        <v>5.43</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>5.07</v>
+        <v>4.32</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>03/09/2023 14:26</t>
+          <t>03/09/2023 14:29</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>1.78</v>
+        <v>1.43</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>1.47</v>
+        <v>1.69</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>03/09/2023 13:55</t>
+          <t>03/09/2023 14:29</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/fc-volendam-twente/MwsMiRVd/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-ajax/0UuQjoo3/</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -3341,14 +3341,14 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>6.57</v>
+        <v>4.17</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>4.81</v>
+        <v>6.58</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>03/09/2023 14:29</t>
+          <t>03/09/2023 14:28</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>5.43</v>
+        <v>4.3</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>4.32</v>
+        <v>5.07</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>03/09/2023 14:29</t>
+          <t>03/09/2023 14:26</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>1.43</v>
+        <v>1.78</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>1.69</v>
+        <v>1.47</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>03/09/2023 14:29</t>
+          <t>03/09/2023 13:55</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-ajax/0UuQjoo3/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/fc-volendam-twente/MwsMiRVd/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.93</v>
+        <v>3.43</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.04</v>
+        <v>2.47</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.96</v>
+        <v>4.07</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.8</v>
+        <v>2.02</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.49</v>
+        <v>2.9</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-almere-city/fiHLuLx2/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-ajax/dde444F2/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>3.43</v>
+        <v>1.93</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.47</v>
+        <v>2.04</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>4.07</v>
+        <v>3.96</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.02</v>
+        <v>3.8</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.9</v>
+        <v>3.49</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-ajax/dde444F2/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-almere-city/fiHLuLx2/</t>
         </is>
       </c>
     </row>
@@ -5541,71 +5541,71 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>1.51</v>
+        <v>1.06</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>23/09/2023 19:12</t>
+          <t>27/09/2023 18:12</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
+          <t>30/09/2023 14:21</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>25.88</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="N56" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>23/09/2023 19:12</t>
-        </is>
-      </c>
-      <c r="P56" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Q56" t="inlineStr">
+      <c r="R56" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>42.53</v>
+      </c>
+      <c r="U56" t="inlineStr">
         <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="R56" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>23/09/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T56" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>30/09/2023 18:44</t>
-        </is>
-      </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/utrecht-almere-city/dv2Y7wMf/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-fc-volendam/EFCT8J6l/</t>
         </is>
       </c>
     </row>
@@ -5633,46 +5633,46 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>1.06</v>
+        <v>1.51</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>27/09/2023 18:12</t>
+          <t>23/09/2023 19:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 18:44</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>17.77</v>
+        <v>4.75</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>27/09/2023 18:12</t>
+          <t>23/09/2023 19:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>25.88</v>
+        <v>4.4</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -5680,15 +5680,15 @@
         </is>
       </c>
       <c r="R57" t="n">
-        <v>24.06</v>
+        <v>5.79</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>27/09/2023 18:12</t>
+          <t>23/09/2023 19:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>42.53</v>
+        <v>5.93</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-fc-volendam/EFCT8J6l/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/utrecht-almere-city/dv2Y7wMf/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>2.24</v>
+        <v>4.64</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.7</v>
+        <v>4.8</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.77</v>
+        <v>4.14</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.74</v>
+        <v>4.04</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.06</v>
+        <v>1.71</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.56</v>
+        <v>1.74</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/ajax-az-alkmaar/jHLM4SBU/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-twente/SxcSPBst/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>4.64</v>
+        <v>2.24</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>4.14</v>
+        <v>3.77</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>4.04</v>
+        <v>3.74</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="R70" t="n">
-        <v>1.71</v>
+        <v>3.06</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>1.74</v>
+        <v>2.56</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-twente/SxcSPBst/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/ajax-az-alkmaar/jHLM4SBU/</t>
         </is>
       </c>
     </row>
@@ -7446,6 +7446,374 @@
       <c r="V76" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/netherlands/eredivisie/feyenoord-vitesse/O4jyOkCh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45221.51041666666</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>4</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>3</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:14</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:14</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:14</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/utrecht-ajax/WzsdJRQN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45221.60416666666</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>2</v>
+      </c>
+      <c r="J78" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:28</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:28</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:22</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/heracles-twente/SKsRD5lo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45221.60416666666</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Zwolle</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>4</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:27</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:28</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:24</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-zwolle/QBeaIotU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45221.69791666666</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>G.A. Eagles</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:44</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:44</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:44</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/g-a-eagles-sparta-rotterdam/UPL9xkRo/</t>
         </is>
       </c>
     </row>

--- a/2023/netherlands_eredivisie_2023-2024.xlsx
+++ b/2023/netherlands_eredivisie_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V80"/>
+  <dimension ref="A1:V88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>6.57</v>
+        <v>4.17</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4.81</v>
+        <v>6.58</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>03/09/2023 14:29</t>
+          <t>03/09/2023 14:28</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>5.43</v>
+        <v>4.3</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>4.32</v>
+        <v>5.07</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>03/09/2023 14:29</t>
+          <t>03/09/2023 14:26</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>1.43</v>
+        <v>1.78</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>1.69</v>
+        <v>1.47</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>03/09/2023 14:29</t>
+          <t>03/09/2023 13:55</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-ajax/0UuQjoo3/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/fc-volendam-twente/MwsMiRVd/</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -3341,14 +3341,14 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>4.17</v>
+        <v>6.57</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>6.58</v>
+        <v>4.81</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>03/09/2023 14:28</t>
+          <t>03/09/2023 14:29</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>4.3</v>
+        <v>5.43</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>5.07</v>
+        <v>4.32</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>03/09/2023 14:26</t>
+          <t>03/09/2023 14:29</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>1.78</v>
+        <v>1.43</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>1.47</v>
+        <v>1.69</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>03/09/2023 13:55</t>
+          <t>03/09/2023 14:29</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/fc-volendam-twente/MwsMiRVd/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-ajax/0UuQjoo3/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.24</v>
+        <v>1.67</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.15</v>
+        <v>1.47</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>16/09/2023 19:38</t>
+          <t>16/09/2023 19:59</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>7.01</v>
+        <v>4.44</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>9.119999999999999</v>
+        <v>4.96</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>16/09/2023 19:57</t>
+          <t>16/09/2023 19:59</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>11.5</v>
+        <v>4.56</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>17.78</v>
+        <v>6.75</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>16/09/2023 19:57</t>
+          <t>16/09/2023 19:59</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-nijmegen/8zF9rNhq/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-fc-volendam/StXtm3pS/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.67</v>
+        <v>1.24</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.47</v>
+        <v>1.15</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>16/09/2023 19:59</t>
+          <t>16/09/2023 19:38</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>4.44</v>
+        <v>7.01</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>4.96</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>16/09/2023 19:59</t>
+          <t>16/09/2023 19:57</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.56</v>
+        <v>11.5</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>6.75</v>
+        <v>17.78</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>16/09/2023 19:59</t>
+          <t>16/09/2023 19:57</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-fc-volendam/StXtm3pS/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-nijmegen/8zF9rNhq/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>3.43</v>
+        <v>1.93</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.47</v>
+        <v>2.04</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>4.07</v>
+        <v>3.96</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.02</v>
+        <v>3.8</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.9</v>
+        <v>3.49</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-ajax/dde444F2/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-almere-city/fiHLuLx2/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.93</v>
+        <v>3.43</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.04</v>
+        <v>2.47</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.96</v>
+        <v>4.07</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.8</v>
+        <v>2.02</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.49</v>
+        <v>2.9</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-almere-city/fiHLuLx2/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-ajax/dde444F2/</t>
         </is>
       </c>
     </row>
@@ -5541,46 +5541,46 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>1.06</v>
+        <v>1.51</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>27/09/2023 18:12</t>
+          <t>23/09/2023 19:12</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 18:44</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>17.77</v>
+        <v>4.75</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>27/09/2023 18:12</t>
+          <t>23/09/2023 19:12</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>25.88</v>
+        <v>4.4</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5588,15 +5588,15 @@
         </is>
       </c>
       <c r="R56" t="n">
-        <v>24.06</v>
+        <v>5.79</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>27/09/2023 18:12</t>
+          <t>23/09/2023 19:12</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>42.53</v>
+        <v>5.93</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-fc-volendam/EFCT8J6l/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/utrecht-almere-city/dv2Y7wMf/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1.51</v>
+        <v>1.06</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>23/09/2023 19:12</t>
+          <t>27/09/2023 18:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
+          <t>30/09/2023 14:21</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>25.88</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="N57" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>23/09/2023 19:12</t>
-        </is>
-      </c>
-      <c r="P57" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Q57" t="inlineStr">
+      <c r="R57" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>42.53</v>
+      </c>
+      <c r="U57" t="inlineStr">
         <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="R57" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>23/09/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T57" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>30/09/2023 18:44</t>
-        </is>
-      </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/utrecht-almere-city/dv2Y7wMf/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-fc-volendam/EFCT8J6l/</t>
         </is>
       </c>
     </row>
@@ -7814,6 +7814,742 @@
       <c r="V80" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/netherlands/eredivisie/g-a-eagles-sparta-rotterdam/UPL9xkRo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45226.83333333334</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Zwolle</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>27/10/2023 19:51</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>27/10/2023 19:55</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>27/10/2023 19:55</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/vitesse-zwolle/rTPDy9th/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45227.78125</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>3</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:41</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:41</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:41</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/heerenveen-heracles/GtOLZnB4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45227.83333333334</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>G.A. Eagles</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>28/10/2023 19:58</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>28/10/2023 19:58</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>28/10/2023 19:58</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/almere-city-g-a-eagles/xjPHzTeb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45227.83333333334</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Waalwijk</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>28/10/2023 19:35</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>28/10/2023 19:37</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>28/10/2023 19:35</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sparta-rotterdam-waalwijk/YHIQY6QA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45227.875</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sittard</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:56</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:56</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:52</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-utrecht/C8HUXQuH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45228.51041666666</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:13</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:13</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:12</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-feyenoord/6VGYWpeN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45228.60416666666</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>5</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>2</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:23</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:29</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:29</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-ajax/I5KxW4AT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45228.60416666666</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>FC Volendam</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>3</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:26</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:24</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:21</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/fc-volendam-excelsior/Onc5ROIp/</t>
         </is>
       </c>
     </row>

--- a/2023/netherlands_eredivisie_2023-2024.xlsx
+++ b/2023/netherlands_eredivisie_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8553,6 +8553,98 @@
         </is>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45232.83333333334</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>FC Volendam</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>02/11/2023 19:59</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>02/11/2023 19:59</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>19.67</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>02/11/2023 19:59</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/ajax-fc-volendam/4tNgFLTK/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/netherlands_eredivisie_2023-2024.xlsx
+++ b/2023/netherlands_eredivisie_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:V93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>G.A. Eagles</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.19</v>
+        <v>1.54</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:25</t>
+          <t>13/08/2023 14:27</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>7.61</v>
+        <v>5.51</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>7.38</v>
+        <v>4.41</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:29</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>12.86</v>
+        <v>7.89</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>16.76</v>
+        <v>6.35</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:29</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/feyenoord-sittard/6ZGlMZuC/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/az-alkmaar-g-a-eagles/SrIpNFQ5/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>G.A. Eagles</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.54</v>
+        <v>1.19</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>13/08/2023 14:27</t>
+          <t>13/08/2023 14:25</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>5.51</v>
+        <v>7.61</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>4.41</v>
+        <v>7.38</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:29</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>7.89</v>
+        <v>12.86</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>6.35</v>
+        <v>16.76</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:29</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/az-alkmaar-g-a-eagles/SrIpNFQ5/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/feyenoord-sittard/6ZGlMZuC/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>1.35</v>
+        <v>5</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>13/08/2023 17:12</t>
+          <t>13/08/2023 14:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.44</v>
+        <v>4.94</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>20/08/2023 14:21</t>
+          <t>20/08/2023 14:28</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>5.56</v>
+        <v>4.52</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>13/08/2023 17:12</t>
+          <t>13/08/2023 14:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>5.21</v>
+        <v>4.35</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
+          <t>20/08/2023 14:29</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>13/08/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
           <t>20/08/2023 14:28</t>
         </is>
       </c>
-      <c r="R17" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>13/08/2023 17:12</t>
-        </is>
-      </c>
-      <c r="T17" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>20/08/2023 14:29</t>
-        </is>
-      </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-zwolle/KxsOzZf5/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sparta-rotterdam-feyenoord/21WSZhAB/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>1.35</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>13/08/2023 14:42</t>
+          <t>13/08/2023 17:12</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4.94</v>
+        <v>1.44</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
+          <t>20/08/2023 14:21</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>13/08/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
           <t>20/08/2023 14:28</t>
         </is>
       </c>
-      <c r="N18" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>13/08/2023 14:42</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="Q18" t="inlineStr">
+      <c r="R18" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>13/08/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="U18" t="inlineStr">
         <is>
           <t>20/08/2023 14:29</t>
         </is>
       </c>
-      <c r="R18" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>13/08/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>20/08/2023 14:28</t>
-        </is>
-      </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sparta-rotterdam-feyenoord/21WSZhAB/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-zwolle/KxsOzZf5/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.67</v>
+        <v>1.24</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.47</v>
+        <v>1.15</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>16/09/2023 19:59</t>
+          <t>16/09/2023 19:38</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>4.44</v>
+        <v>7.01</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>4.96</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>16/09/2023 19:59</t>
+          <t>16/09/2023 19:57</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>4.56</v>
+        <v>11.5</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>6.75</v>
+        <v>17.78</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>16/09/2023 19:59</t>
+          <t>16/09/2023 19:57</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-fc-volendam/StXtm3pS/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-nijmegen/8zF9rNhq/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.24</v>
+        <v>1.67</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.15</v>
+        <v>1.47</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>16/09/2023 19:38</t>
+          <t>16/09/2023 19:59</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>7.01</v>
+        <v>4.44</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>9.119999999999999</v>
+        <v>4.96</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>16/09/2023 19:57</t>
+          <t>16/09/2023 19:59</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>11.5</v>
+        <v>4.56</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>17.78</v>
+        <v>6.75</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>16/09/2023 19:57</t>
+          <t>16/09/2023 19:59</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-nijmegen/8zF9rNhq/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-fc-volendam/StXtm3pS/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Waalwijk</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>4.49</v>
+        <v>4.72</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>6.03</v>
+        <v>4.63</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>24/09/2023 16:43</t>
+          <t>24/09/2023 16:39</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>4.43</v>
+        <v>4.32</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4.72</v>
+        <v>4.03</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:39</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>1.53</v>
+        <v>1.77</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>24/09/2023 16:38</t>
+          <t>24/09/2023 16:39</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/waalwijk-twente/OWEoHsa8/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-az-alkmaar/ATQ3hbM7/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Waalwijk</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>AZ Alkmaar</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
       <c r="J50" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:43</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
         <v>4.72</v>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>24/09/2023 16:39</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="P50" t="n">
-        <v>4.03</v>
-      </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>24/09/2023 16:39</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1.77</v>
+        <v>1.53</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>24/09/2023 16:39</t>
+          <t>24/09/2023 16:38</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-az-alkmaar/ATQ3hbM7/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/waalwijk-twente/OWEoHsa8/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>4.64</v>
+        <v>2.24</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.14</v>
+        <v>3.77</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.04</v>
+        <v>3.74</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="R69" t="n">
-        <v>1.71</v>
+        <v>3.06</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>1.74</v>
+        <v>2.56</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-twente/SxcSPBst/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/ajax-az-alkmaar/jHLM4SBU/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>2.24</v>
+        <v>4.64</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.7</v>
+        <v>4.8</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.77</v>
+        <v>4.14</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.74</v>
+        <v>4.04</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.06</v>
+        <v>1.71</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.56</v>
+        <v>1.74</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/ajax-az-alkmaar/jHLM4SBU/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-twente/SxcSPBst/</t>
         </is>
       </c>
     </row>
@@ -8642,6 +8642,374 @@
       <c r="V89" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/netherlands/eredivisie/ajax-fc-volendam/4tNgFLTK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45234.6875</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>6</v>
+      </c>
+      <c r="J90" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:21</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>6</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:21</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/heracles-psv/QBs4nQfA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45234.78125</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:35</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-az-alkmaar/UqlelnQc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45234.78125</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Waalwijk</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:40</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:40</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:34</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/waalwijk-feyenoord/C8w0m6u4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45234.875</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>G.A. Eagles</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>5</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:12</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:12</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:12</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/g-a-eagles-vitesse/KYt8opAG/</t>
         </is>
       </c>
     </row>

--- a/2023/netherlands_eredivisie_2023-2024.xlsx
+++ b/2023/netherlands_eredivisie_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V93"/>
+  <dimension ref="A1:V96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>G.A. Eagles</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.54</v>
+        <v>1.19</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:27</t>
+          <t>13/08/2023 14:25</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>5.51</v>
+        <v>7.61</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>4.41</v>
+        <v>7.38</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:29</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>7.89</v>
+        <v>12.86</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>6.35</v>
+        <v>16.76</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:29</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/az-alkmaar-g-a-eagles/SrIpNFQ5/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/feyenoord-sittard/6ZGlMZuC/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>G.A. Eagles</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.19</v>
+        <v>1.54</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>13/08/2023 14:25</t>
+          <t>13/08/2023 14:27</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>7.61</v>
+        <v>5.51</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>7.38</v>
+        <v>4.41</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>13/08/2023 14:29</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>12.86</v>
+        <v>7.89</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>16.76</v>
+        <v>6.35</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>13/08/2023 14:29</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/feyenoord-sittard/6ZGlMZuC/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/az-alkmaar-g-a-eagles/SrIpNFQ5/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>1.35</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>13/08/2023 14:42</t>
+          <t>13/08/2023 17:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4.94</v>
+        <v>1.44</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
+          <t>20/08/2023 14:21</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>13/08/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
           <t>20/08/2023 14:28</t>
         </is>
       </c>
-      <c r="N17" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>13/08/2023 14:42</t>
-        </is>
-      </c>
-      <c r="P17" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="Q17" t="inlineStr">
+      <c r="R17" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>13/08/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="U17" t="inlineStr">
         <is>
           <t>20/08/2023 14:29</t>
         </is>
       </c>
-      <c r="R17" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>13/08/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T17" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>20/08/2023 14:28</t>
-        </is>
-      </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sparta-rotterdam-feyenoord/21WSZhAB/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-zwolle/KxsOzZf5/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>1.35</v>
+        <v>5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>13/08/2023 17:12</t>
+          <t>13/08/2023 14:42</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.44</v>
+        <v>4.94</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>20/08/2023 14:21</t>
+          <t>20/08/2023 14:28</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>5.56</v>
+        <v>4.52</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>13/08/2023 17:12</t>
+          <t>13/08/2023 14:42</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>5.21</v>
+        <v>4.35</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
+          <t>20/08/2023 14:29</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>13/08/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
           <t>20/08/2023 14:28</t>
         </is>
       </c>
-      <c r="R18" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>13/08/2023 17:12</t>
-        </is>
-      </c>
-      <c r="T18" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>20/08/2023 14:29</t>
-        </is>
-      </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-zwolle/KxsOzZf5/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sparta-rotterdam-feyenoord/21WSZhAB/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.93</v>
+        <v>3.43</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.04</v>
+        <v>2.47</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.96</v>
+        <v>4.07</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.8</v>
+        <v>2.02</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.49</v>
+        <v>2.9</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-almere-city/fiHLuLx2/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-ajax/dde444F2/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>3.43</v>
+        <v>1.93</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.47</v>
+        <v>2.04</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>4.07</v>
+        <v>3.96</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.02</v>
+        <v>3.8</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.9</v>
+        <v>3.49</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-ajax/dde444F2/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-almere-city/fiHLuLx2/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Waalwijk</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>AZ Alkmaar</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>3</v>
-      </c>
       <c r="J49" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:43</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
         <v>4.72</v>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>24/09/2023 16:39</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="P49" t="n">
-        <v>4.03</v>
-      </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>24/09/2023 16:39</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>1.77</v>
+        <v>1.53</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>24/09/2023 16:39</t>
+          <t>24/09/2023 16:38</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-az-alkmaar/ATQ3hbM7/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/waalwijk-twente/OWEoHsa8/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Waalwijk</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>4.49</v>
+        <v>4.72</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>6.03</v>
+        <v>4.63</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>24/09/2023 16:43</t>
+          <t>24/09/2023 16:39</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>4.43</v>
+        <v>4.32</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4.72</v>
+        <v>4.03</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:39</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1.53</v>
+        <v>1.77</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>24/09/2023 16:38</t>
+          <t>24/09/2023 16:39</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/waalwijk-twente/OWEoHsa8/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-az-alkmaar/ATQ3hbM7/</t>
         </is>
       </c>
     </row>
@@ -5541,71 +5541,71 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>1.51</v>
+        <v>1.06</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>23/09/2023 19:12</t>
+          <t>27/09/2023 18:12</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
+          <t>30/09/2023 14:21</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>25.88</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="N56" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>23/09/2023 19:12</t>
-        </is>
-      </c>
-      <c r="P56" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Q56" t="inlineStr">
+      <c r="R56" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>42.53</v>
+      </c>
+      <c r="U56" t="inlineStr">
         <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="R56" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>23/09/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T56" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>30/09/2023 18:44</t>
-        </is>
-      </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/utrecht-almere-city/dv2Y7wMf/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-fc-volendam/EFCT8J6l/</t>
         </is>
       </c>
     </row>
@@ -5633,46 +5633,46 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>1.06</v>
+        <v>1.51</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>27/09/2023 18:12</t>
+          <t>23/09/2023 19:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 18:44</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>17.77</v>
+        <v>4.75</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>27/09/2023 18:12</t>
+          <t>23/09/2023 19:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>25.88</v>
+        <v>4.4</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -5680,15 +5680,15 @@
         </is>
       </c>
       <c r="R57" t="n">
-        <v>24.06</v>
+        <v>5.79</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>27/09/2023 18:12</t>
+          <t>23/09/2023 19:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>42.53</v>
+        <v>5.93</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-fc-volendam/EFCT8J6l/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/utrecht-almere-city/dv2Y7wMf/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Heracles</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J78" t="n">
-        <v>4.47</v>
+        <v>2.37</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,48 +7588,48 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>6.03</v>
+        <v>2.31</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
+          <t>22/10/2023 14:27</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
           <t>22/10/2023 14:28</t>
         </is>
       </c>
-      <c r="N78" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="O78" t="inlineStr">
+      <c r="R78" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="S78" t="inlineStr">
         <is>
           <t>09/10/2023 14:42</t>
         </is>
       </c>
-      <c r="P78" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>22/10/2023 14:28</t>
-        </is>
-      </c>
-      <c r="R78" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>09/10/2023 14:42</t>
-        </is>
-      </c>
       <c r="T78" t="n">
-        <v>1.53</v>
+        <v>2.96</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>22/10/2023 14:22</t>
+          <t>22/10/2023 14:24</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/heracles-twente/SKsRD5lo/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-zwolle/QBeaIotU/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Heracles</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>2.37</v>
+        <v>4.47</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.31</v>
+        <v>6.03</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:27</t>
+          <t>22/10/2023 14:28</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.56</v>
+        <v>4.05</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.89</v>
+        <v>4.66</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.97</v>
+        <v>1.75</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.96</v>
+        <v>1.53</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:24</t>
+          <t>22/10/2023 14:22</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-zwolle/QBeaIotU/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/heracles-twente/SKsRD5lo/</t>
         </is>
       </c>
     </row>
@@ -9010,6 +9010,282 @@
       <c r="V93" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/netherlands/eredivisie/g-a-eagles-vitesse/KYt8opAG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45235.51041666666</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:14</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:14</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:14</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/utrecht-twente/bPuCp4PM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45235.60416666666</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>3</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>FC Volendam</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>3</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>02/11/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:27</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>02/11/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:27</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>02/11/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:29</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/nijmegen-fc-volendam/vyc9qOvT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45235.60416666666</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Zwolle</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Sittard</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>28/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:21</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>28/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:28</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>28/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:28</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-sittard/tpqyurmp/</t>
         </is>
       </c>
     </row>

--- a/2023/netherlands_eredivisie_2023-2024.xlsx
+++ b/2023/netherlands_eredivisie_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V96"/>
+  <dimension ref="A1:V98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>G.A. Eagles</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.19</v>
+        <v>1.54</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:25</t>
+          <t>13/08/2023 14:27</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>7.61</v>
+        <v>5.51</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>7.38</v>
+        <v>4.41</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:29</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>12.86</v>
+        <v>7.89</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>16.76</v>
+        <v>6.35</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:29</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/feyenoord-sittard/6ZGlMZuC/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/az-alkmaar-g-a-eagles/SrIpNFQ5/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>G.A. Eagles</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.54</v>
+        <v>1.19</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>13/08/2023 14:27</t>
+          <t>13/08/2023 14:25</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>5.51</v>
+        <v>7.61</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>4.41</v>
+        <v>7.38</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:29</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>7.89</v>
+        <v>12.86</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>6.35</v>
+        <v>16.76</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:29</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/az-alkmaar-g-a-eagles/SrIpNFQ5/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/feyenoord-sittard/6ZGlMZuC/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>1.35</v>
+        <v>5</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>13/08/2023 17:12</t>
+          <t>13/08/2023 14:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.44</v>
+        <v>4.94</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>20/08/2023 14:21</t>
+          <t>20/08/2023 14:28</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>5.56</v>
+        <v>4.52</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>13/08/2023 17:12</t>
+          <t>13/08/2023 14:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>5.21</v>
+        <v>4.35</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
+          <t>20/08/2023 14:29</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>13/08/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
           <t>20/08/2023 14:28</t>
         </is>
       </c>
-      <c r="R17" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>13/08/2023 17:12</t>
-        </is>
-      </c>
-      <c r="T17" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>20/08/2023 14:29</t>
-        </is>
-      </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-zwolle/KxsOzZf5/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sparta-rotterdam-feyenoord/21WSZhAB/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>1.35</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>13/08/2023 14:42</t>
+          <t>13/08/2023 17:12</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4.94</v>
+        <v>1.44</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
+          <t>20/08/2023 14:21</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>13/08/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
           <t>20/08/2023 14:28</t>
         </is>
       </c>
-      <c r="N18" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>13/08/2023 14:42</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="Q18" t="inlineStr">
+      <c r="R18" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>13/08/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="U18" t="inlineStr">
         <is>
           <t>20/08/2023 14:29</t>
         </is>
       </c>
-      <c r="R18" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>13/08/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>20/08/2023 14:28</t>
-        </is>
-      </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sparta-rotterdam-feyenoord/21WSZhAB/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-zwolle/KxsOzZf5/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>3.43</v>
+        <v>1.93</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.47</v>
+        <v>2.04</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>4.07</v>
+        <v>3.96</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.02</v>
+        <v>3.8</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.9</v>
+        <v>3.49</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-ajax/dde444F2/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-almere-city/fiHLuLx2/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.93</v>
+        <v>3.43</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.04</v>
+        <v>2.47</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.96</v>
+        <v>4.07</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.8</v>
+        <v>2.02</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.49</v>
+        <v>2.9</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-almere-city/fiHLuLx2/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-ajax/dde444F2/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Waalwijk</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>4.49</v>
+        <v>4.72</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>6.03</v>
+        <v>4.63</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>24/09/2023 16:43</t>
+          <t>24/09/2023 16:39</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>4.43</v>
+        <v>4.32</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4.72</v>
+        <v>4.03</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:39</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>1.53</v>
+        <v>1.77</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>24/09/2023 16:38</t>
+          <t>24/09/2023 16:39</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/waalwijk-twente/OWEoHsa8/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-az-alkmaar/ATQ3hbM7/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Waalwijk</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>AZ Alkmaar</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
       <c r="J50" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:43</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
         <v>4.72</v>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>24/09/2023 16:39</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="P50" t="n">
-        <v>4.03</v>
-      </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>24/09/2023 16:39</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1.77</v>
+        <v>1.53</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>24/09/2023 16:39</t>
+          <t>24/09/2023 16:38</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-az-alkmaar/ATQ3hbM7/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/waalwijk-twente/OWEoHsa8/</t>
         </is>
       </c>
     </row>
@@ -5541,46 +5541,46 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>1.06</v>
+        <v>1.51</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>27/09/2023 18:12</t>
+          <t>23/09/2023 19:12</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 18:44</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>17.77</v>
+        <v>4.75</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>27/09/2023 18:12</t>
+          <t>23/09/2023 19:12</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>25.88</v>
+        <v>4.4</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5588,15 +5588,15 @@
         </is>
       </c>
       <c r="R56" t="n">
-        <v>24.06</v>
+        <v>5.79</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>27/09/2023 18:12</t>
+          <t>23/09/2023 19:12</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>42.53</v>
+        <v>5.93</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-fc-volendam/EFCT8J6l/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/utrecht-almere-city/dv2Y7wMf/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1.51</v>
+        <v>1.06</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>23/09/2023 19:12</t>
+          <t>27/09/2023 18:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
+          <t>30/09/2023 14:21</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>25.88</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="N57" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>23/09/2023 19:12</t>
-        </is>
-      </c>
-      <c r="P57" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Q57" t="inlineStr">
+      <c r="R57" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>42.53</v>
+      </c>
+      <c r="U57" t="inlineStr">
         <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="R57" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>23/09/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T57" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>30/09/2023 18:44</t>
-        </is>
-      </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/utrecht-almere-city/dv2Y7wMf/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-fc-volendam/EFCT8J6l/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>G.A. Eagles</t>
+          <t>Waalwijk</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.51</v>
+        <v>1.75</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3.13</v>
+        <v>1.78</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>28/10/2023 19:58</t>
+          <t>28/10/2023 19:35</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.48</v>
+        <v>3.96</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.57</v>
+        <v>3.95</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>28/10/2023 19:58</t>
+          <t>28/10/2023 19:37</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.89</v>
+        <v>4.62</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.34</v>
+        <v>4.63</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>28/10/2023 19:58</t>
+          <t>28/10/2023 19:35</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/almere-city-g-a-eagles/xjPHzTeb/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sparta-rotterdam-waalwijk/YHIQY6QA/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Waalwijk</t>
+          <t>G.A. Eagles</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1.75</v>
+        <v>2.51</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.78</v>
+        <v>3.13</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>28/10/2023 19:35</t>
+          <t>28/10/2023 19:58</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.96</v>
+        <v>3.48</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.95</v>
+        <v>3.57</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>28/10/2023 19:37</t>
+          <t>28/10/2023 19:58</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>4.62</v>
+        <v>2.89</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>4.63</v>
+        <v>2.34</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>28/10/2023 19:35</t>
+          <t>28/10/2023 19:58</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sparta-rotterdam-waalwijk/YHIQY6QA/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/almere-city-g-a-eagles/xjPHzTeb/</t>
         </is>
       </c>
     </row>
@@ -9286,6 +9286,190 @@
       <c r="V96" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-sittard/tpqyurmp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45235.69791666666</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>4</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>02/11/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:44</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>02/11/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:44</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>02/11/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:44</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/ajax-heerenveen/jgkikSAi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45235.69791666666</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>2</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:36</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:36</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:36</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sparta-rotterdam-almere-city/z7ruv22j/</t>
         </is>
       </c>
     </row>

--- a/2023/netherlands_eredivisie_2023-2024.xlsx
+++ b/2023/netherlands_eredivisie_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V98"/>
+  <dimension ref="A1:V99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9313,71 +9313,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J97" t="n">
-        <v>1.62</v>
+        <v>2.01</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>02/11/2023 20:12</t>
+          <t>28/10/2023 20:13</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.41</v>
+        <v>1.75</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>05/11/2023 16:44</t>
+          <t>05/11/2023 16:36</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>4.85</v>
+        <v>3.74</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>02/11/2023 20:12</t>
+          <t>28/10/2023 20:13</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>5.6</v>
+        <v>3.98</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>05/11/2023 16:44</t>
+          <t>05/11/2023 16:36</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>4.55</v>
+        <v>3.73</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>02/11/2023 20:12</t>
+          <t>28/10/2023 20:13</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>7.02</v>
+        <v>4.79</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>05/11/2023 16:44</t>
+          <t>05/11/2023 16:36</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/ajax-heerenveen/jgkikSAi/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sparta-rotterdam-almere-city/z7ruv22j/</t>
         </is>
       </c>
     </row>
@@ -9405,71 +9405,163 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="G98" t="n">
+        <v>4</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
         <v>1</v>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Almere City</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
-        <v>2</v>
-      </c>
       <c r="J98" t="n">
-        <v>2.01</v>
+        <v>1.62</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>28/10/2023 20:13</t>
+          <t>02/11/2023 20:12</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.75</v>
+        <v>1.41</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>05/11/2023 16:36</t>
+          <t>05/11/2023 16:44</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.74</v>
+        <v>4.85</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>28/10/2023 20:13</t>
+          <t>02/11/2023 20:12</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.98</v>
+        <v>5.6</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>05/11/2023 16:36</t>
+          <t>05/11/2023 16:44</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.73</v>
+        <v>4.55</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>28/10/2023 20:13</t>
+          <t>02/11/2023 20:12</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>4.79</v>
+        <v>7.02</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>05/11/2023 16:36</t>
+          <t>05/11/2023 16:44</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sparta-rotterdam-almere-city/z7ruv22j/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/ajax-heerenveen/jgkikSAi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45240.83333333334</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sittard</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>4</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:59</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:59</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:59</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-heracles/lAnqwMHd/</t>
         </is>
       </c>
     </row>

--- a/2023/netherlands_eredivisie_2023-2024.xlsx
+++ b/2023/netherlands_eredivisie_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V99"/>
+  <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>G.A. Eagles</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.54</v>
+        <v>1.19</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:27</t>
+          <t>13/08/2023 14:25</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>5.51</v>
+        <v>7.61</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>4.41</v>
+        <v>7.38</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:29</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>7.89</v>
+        <v>12.86</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>6.35</v>
+        <v>16.76</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:29</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/az-alkmaar-g-a-eagles/SrIpNFQ5/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/feyenoord-sittard/6ZGlMZuC/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>G.A. Eagles</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.19</v>
+        <v>1.54</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>13/08/2023 14:25</t>
+          <t>13/08/2023 14:27</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>7.61</v>
+        <v>5.51</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>7.38</v>
+        <v>4.41</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>13/08/2023 14:29</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>12.86</v>
+        <v>7.89</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>16.76</v>
+        <v>6.35</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>13/08/2023 14:29</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/feyenoord-sittard/6ZGlMZuC/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/az-alkmaar-g-a-eagles/SrIpNFQ5/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>1.35</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>13/08/2023 14:42</t>
+          <t>13/08/2023 17:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4.94</v>
+        <v>1.44</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
+          <t>20/08/2023 14:21</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>13/08/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
           <t>20/08/2023 14:28</t>
         </is>
       </c>
-      <c r="N17" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>13/08/2023 14:42</t>
-        </is>
-      </c>
-      <c r="P17" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="Q17" t="inlineStr">
+      <c r="R17" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>13/08/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="U17" t="inlineStr">
         <is>
           <t>20/08/2023 14:29</t>
         </is>
       </c>
-      <c r="R17" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>13/08/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T17" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>20/08/2023 14:28</t>
-        </is>
-      </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sparta-rotterdam-feyenoord/21WSZhAB/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-zwolle/KxsOzZf5/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>1.35</v>
+        <v>5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>13/08/2023 17:12</t>
+          <t>13/08/2023 14:42</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.44</v>
+        <v>4.94</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>20/08/2023 14:21</t>
+          <t>20/08/2023 14:28</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>5.56</v>
+        <v>4.52</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>13/08/2023 17:12</t>
+          <t>13/08/2023 14:42</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>5.21</v>
+        <v>4.35</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
+          <t>20/08/2023 14:29</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>13/08/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
           <t>20/08/2023 14:28</t>
         </is>
       </c>
-      <c r="R18" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>13/08/2023 17:12</t>
-        </is>
-      </c>
-      <c r="T18" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>20/08/2023 14:29</t>
-        </is>
-      </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-zwolle/KxsOzZf5/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sparta-rotterdam-feyenoord/21WSZhAB/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Waalwijk</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>AZ Alkmaar</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>3</v>
-      </c>
       <c r="J49" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:43</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
         <v>4.72</v>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>24/09/2023 16:39</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="P49" t="n">
-        <v>4.03</v>
-      </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>24/09/2023 16:39</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>1.77</v>
+        <v>1.53</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>24/09/2023 16:39</t>
+          <t>24/09/2023 16:38</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-az-alkmaar/ATQ3hbM7/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/waalwijk-twente/OWEoHsa8/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Waalwijk</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>4.49</v>
+        <v>4.72</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>6.03</v>
+        <v>4.63</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>24/09/2023 16:43</t>
+          <t>24/09/2023 16:39</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>4.43</v>
+        <v>4.32</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4.72</v>
+        <v>4.03</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:39</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1.53</v>
+        <v>1.77</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>24/09/2023 16:38</t>
+          <t>24/09/2023 16:39</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/waalwijk-twente/OWEoHsa8/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-az-alkmaar/ATQ3hbM7/</t>
         </is>
       </c>
     </row>
@@ -5541,71 +5541,71 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>1.51</v>
+        <v>1.06</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>23/09/2023 19:12</t>
+          <t>27/09/2023 18:12</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
+          <t>30/09/2023 14:21</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>25.88</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="N56" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>23/09/2023 19:12</t>
-        </is>
-      </c>
-      <c r="P56" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Q56" t="inlineStr">
+      <c r="R56" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>42.53</v>
+      </c>
+      <c r="U56" t="inlineStr">
         <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="R56" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>23/09/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T56" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>30/09/2023 18:44</t>
-        </is>
-      </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/utrecht-almere-city/dv2Y7wMf/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-fc-volendam/EFCT8J6l/</t>
         </is>
       </c>
     </row>
@@ -5633,46 +5633,46 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>1.06</v>
+        <v>1.51</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>27/09/2023 18:12</t>
+          <t>23/09/2023 19:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 18:44</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>17.77</v>
+        <v>4.75</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>27/09/2023 18:12</t>
+          <t>23/09/2023 19:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>25.88</v>
+        <v>4.4</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -5680,15 +5680,15 @@
         </is>
       </c>
       <c r="R57" t="n">
-        <v>24.06</v>
+        <v>5.79</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>27/09/2023 18:12</t>
+          <t>23/09/2023 19:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>42.53</v>
+        <v>5.93</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-fc-volendam/EFCT8J6l/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/utrecht-almere-city/dv2Y7wMf/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Heracles</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,63 +5917,63 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>2.09</v>
+        <v>2.83</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>28/09/2023 19:12</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.44</v>
+        <v>3.17</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>01/10/2023 14:24</t>
+          <t>01/10/2023 14:20</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4.05</v>
+        <v>3.52</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>28/09/2023 19:12</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.69</v>
+        <v>3.54</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>01/10/2023 14:27</t>
+          <t>01/10/2023 14:20</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.19</v>
+        <v>2.49</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>28/09/2023 19:12</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.88</v>
+        <v>2.33</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>01/10/2023 14:27</t>
+          <t>01/10/2023 14:20</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/heracles-zwolle/rmALTKrE/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-sparta-rotterdam/KCXlChDt/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Heracles</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,63 +6009,63 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>2.83</v>
+        <v>2.09</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>28/09/2023 19:12</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>3.17</v>
+        <v>2.44</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:20</t>
+          <t>01/10/2023 14:24</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.52</v>
+        <v>4.05</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>28/09/2023 19:12</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.54</v>
+        <v>3.69</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:20</t>
+          <t>01/10/2023 14:27</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.49</v>
+        <v>3.19</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>28/09/2023 19:12</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.33</v>
+        <v>2.88</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:20</t>
+          <t>01/10/2023 14:27</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-sparta-rotterdam/KCXlChDt/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/heracles-zwolle/rmALTKrE/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Heracles</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>2.37</v>
+        <v>4.47</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.31</v>
+        <v>6.03</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>22/10/2023 14:27</t>
+          <t>22/10/2023 14:28</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.56</v>
+        <v>4.05</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.89</v>
+        <v>4.66</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.97</v>
+        <v>1.75</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.96</v>
+        <v>1.53</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>22/10/2023 14:24</t>
+          <t>22/10/2023 14:22</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-zwolle/QBeaIotU/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/heracles-twente/SKsRD5lo/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Heracles</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J79" t="n">
-        <v>4.47</v>
+        <v>2.37</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,48 +7680,48 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>6.03</v>
+        <v>2.31</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
+          <t>22/10/2023 14:27</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
           <t>22/10/2023 14:28</t>
         </is>
       </c>
-      <c r="N79" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="O79" t="inlineStr">
+      <c r="R79" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="S79" t="inlineStr">
         <is>
           <t>09/10/2023 14:42</t>
         </is>
       </c>
-      <c r="P79" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>22/10/2023 14:28</t>
-        </is>
-      </c>
-      <c r="R79" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>09/10/2023 14:42</t>
-        </is>
-      </c>
       <c r="T79" t="n">
-        <v>1.53</v>
+        <v>2.96</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:22</t>
+          <t>22/10/2023 14:24</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/heracles-twente/SKsRD5lo/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-zwolle/QBeaIotU/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Waalwijk</t>
+          <t>G.A. Eagles</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>1.75</v>
+        <v>2.51</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.78</v>
+        <v>3.13</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>28/10/2023 19:35</t>
+          <t>28/10/2023 19:58</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.96</v>
+        <v>3.48</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.95</v>
+        <v>3.57</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>28/10/2023 19:37</t>
+          <t>28/10/2023 19:58</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>4.62</v>
+        <v>2.89</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>4.63</v>
+        <v>2.34</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>28/10/2023 19:35</t>
+          <t>28/10/2023 19:58</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sparta-rotterdam-waalwijk/YHIQY6QA/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/almere-city-g-a-eagles/xjPHzTeb/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>G.A. Eagles</t>
+          <t>Waalwijk</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>2.51</v>
+        <v>1.75</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3.13</v>
+        <v>1.78</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>28/10/2023 19:58</t>
+          <t>28/10/2023 19:35</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.48</v>
+        <v>3.96</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.57</v>
+        <v>3.95</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>28/10/2023 19:58</t>
+          <t>28/10/2023 19:37</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.89</v>
+        <v>4.62</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.34</v>
+        <v>4.63</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>28/10/2023 19:58</t>
+          <t>28/10/2023 19:35</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/almere-city-g-a-eagles/xjPHzTeb/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sparta-rotterdam-waalwijk/YHIQY6QA/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>1.54</v>
+        <v>3.04</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>22/10/2023 12:43</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.29</v>
+        <v>2.62</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:23</t>
+          <t>29/10/2023 14:26</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>4.9</v>
+        <v>3.88</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>22/10/2023 12:43</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>6.33</v>
+        <v>3.81</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:29</t>
+          <t>29/10/2023 14:24</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>5.21</v>
+        <v>2.25</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>22/10/2023 12:43</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>9.789999999999999</v>
+        <v>2.61</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:29</t>
+          <t>29/10/2023 14:21</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-ajax/I5KxW4AT/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/fc-volendam-excelsior/Onc5ROIp/</t>
         </is>
       </c>
     </row>
@@ -8485,71 +8485,71 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>3.04</v>
+        <v>1.54</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>22/10/2023 12:43</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.62</v>
+        <v>1.29</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>29/10/2023 14:26</t>
+          <t>29/10/2023 14:23</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.88</v>
+        <v>4.9</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>22/10/2023 12:43</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.81</v>
+        <v>6.33</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>29/10/2023 14:24</t>
+          <t>29/10/2023 14:29</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>2.25</v>
+        <v>5.21</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>22/10/2023 12:43</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>2.61</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>29/10/2023 14:21</t>
+          <t>29/10/2023 14:29</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/fc-volendam-excelsior/Onc5ROIp/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-ajax/I5KxW4AT/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Waalwijk</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,63 +8769,63 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>5.11</v>
+        <v>8.58</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>29/10/2023 17:13</t>
+          <t>29/10/2023 12:42</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>9.109999999999999</v>
+        <v>14.74</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>04/11/2023 18:43</t>
+          <t>04/11/2023 18:40</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>4.63</v>
+        <v>5.63</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>29/10/2023 17:13</t>
+          <t>29/10/2023 12:42</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>5.56</v>
+        <v>8.98</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>04/11/2023 18:43</t>
+          <t>04/11/2023 18:40</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>29/10/2023 17:13</t>
+          <t>29/10/2023 12:42</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>04/11/2023 18:35</t>
+          <t>04/11/2023 18:34</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-az-alkmaar/UqlelnQc/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/waalwijk-feyenoord/C8w0m6u4/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Waalwijk</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,63 +8861,63 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>8.58</v>
+        <v>5.11</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>29/10/2023 12:42</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>14.74</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>04/11/2023 18:40</t>
+          <t>04/11/2023 18:43</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>5.63</v>
+        <v>4.63</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>29/10/2023 12:42</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>8.98</v>
+        <v>5.56</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>04/11/2023 18:40</t>
+          <t>04/11/2023 18:43</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>29/10/2023 12:42</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>04/11/2023 18:34</t>
+          <t>04/11/2023 18:35</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/waalwijk-feyenoord/C8w0m6u4/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-az-alkmaar/UqlelnQc/</t>
         </is>
       </c>
     </row>
@@ -9313,71 +9313,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="G97" t="n">
+        <v>4</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
         <v>1</v>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Almere City</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
-        <v>2</v>
-      </c>
       <c r="J97" t="n">
-        <v>2.01</v>
+        <v>1.62</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>28/10/2023 20:13</t>
+          <t>02/11/2023 20:12</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.75</v>
+        <v>1.41</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>05/11/2023 16:36</t>
+          <t>05/11/2023 16:44</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.74</v>
+        <v>4.85</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>28/10/2023 20:13</t>
+          <t>02/11/2023 20:12</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.98</v>
+        <v>5.6</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>05/11/2023 16:36</t>
+          <t>05/11/2023 16:44</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.73</v>
+        <v>4.55</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>28/10/2023 20:13</t>
+          <t>02/11/2023 20:12</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>4.79</v>
+        <v>7.02</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>05/11/2023 16:36</t>
+          <t>05/11/2023 16:44</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sparta-rotterdam-almere-city/z7ruv22j/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/ajax-heerenveen/jgkikSAi/</t>
         </is>
       </c>
     </row>
@@ -9405,71 +9405,71 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="n">
-        <v>1.62</v>
+        <v>2.01</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>02/11/2023 20:12</t>
+          <t>28/10/2023 20:13</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.41</v>
+        <v>1.75</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>05/11/2023 16:44</t>
+          <t>05/11/2023 16:36</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>4.85</v>
+        <v>3.74</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>02/11/2023 20:12</t>
+          <t>28/10/2023 20:13</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>5.6</v>
+        <v>3.98</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>05/11/2023 16:44</t>
+          <t>05/11/2023 16:36</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>4.55</v>
+        <v>3.73</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>02/11/2023 20:12</t>
+          <t>28/10/2023 20:13</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>7.02</v>
+        <v>4.79</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>05/11/2023 16:44</t>
+          <t>05/11/2023 16:36</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/ajax-heerenveen/jgkikSAi/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sparta-rotterdam-almere-city/z7ruv22j/</t>
         </is>
       </c>
     </row>
@@ -9562,6 +9562,282 @@
       <c r="V99" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-heracles/lAnqwMHd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45241.78125</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Waalwijk</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>G.A. Eagles</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>04/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:37</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>04/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:37</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>04/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:37</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/waalwijk-g-a-eagles/08GXqhj9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45241.83333333334</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>3</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>11/11/2023 19:44</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>11/11/2023 19:59</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>11/11/2023 19:59</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-nijmegen/Isn9Q3kl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45241.875</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>3</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:52</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:52</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:58</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/vitesse-heerenveen/hrDPoELd/</t>
         </is>
       </c>
     </row>

--- a/2023/netherlands_eredivisie_2023-2024.xlsx
+++ b/2023/netherlands_eredivisie_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V102"/>
+  <dimension ref="A1:V105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9841,6 +9841,282 @@
         </is>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45242.51041666666</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>4</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Zwolle</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:38</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:14</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>32</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:14</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-zwolle/WYBTpYz3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45242.60416666666</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>06/11/2023 07:04</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:27</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>06/11/2023 07:04</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:23</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>06/11/2023 07:04</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:21</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/almere-city-ajax/KdT5Rqzr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45242.60416666666</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>FC Volendam</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>4</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:25</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:25</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:25</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/fc-volendam-sparta-rotterdam/vaFyqC5F/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/netherlands_eredivisie_2023-2024.xlsx
+++ b/2023/netherlands_eredivisie_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V105"/>
+  <dimension ref="A1:V107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>4.17</v>
+        <v>6.57</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>6.58</v>
+        <v>4.81</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>03/09/2023 14:28</t>
+          <t>03/09/2023 14:29</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4.3</v>
+        <v>5.43</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>5.07</v>
+        <v>4.32</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>03/09/2023 14:26</t>
+          <t>03/09/2023 14:29</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>1.78</v>
+        <v>1.43</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>1.47</v>
+        <v>1.69</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>03/09/2023 13:55</t>
+          <t>03/09/2023 14:29</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/fc-volendam-twente/MwsMiRVd/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-ajax/0UuQjoo3/</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -3341,14 +3341,14 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>6.57</v>
+        <v>4.17</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>4.81</v>
+        <v>6.58</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>03/09/2023 14:29</t>
+          <t>03/09/2023 14:28</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>5.43</v>
+        <v>4.3</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>4.32</v>
+        <v>5.07</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>03/09/2023 14:29</t>
+          <t>03/09/2023 14:26</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>1.43</v>
+        <v>1.78</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>1.69</v>
+        <v>1.47</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>03/09/2023 14:29</t>
+          <t>03/09/2023 13:55</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-ajax/0UuQjoo3/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/fc-volendam-twente/MwsMiRVd/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.24</v>
+        <v>1.67</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.15</v>
+        <v>1.47</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>16/09/2023 19:38</t>
+          <t>16/09/2023 19:59</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>7.01</v>
+        <v>4.44</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>9.119999999999999</v>
+        <v>4.96</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>16/09/2023 19:57</t>
+          <t>16/09/2023 19:59</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>11.5</v>
+        <v>4.56</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>17.78</v>
+        <v>6.75</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>16/09/2023 19:57</t>
+          <t>16/09/2023 19:59</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-nijmegen/8zF9rNhq/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-fc-volendam/StXtm3pS/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.67</v>
+        <v>1.24</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.47</v>
+        <v>1.15</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>16/09/2023 19:59</t>
+          <t>16/09/2023 19:38</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>4.44</v>
+        <v>7.01</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>4.96</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>16/09/2023 19:59</t>
+          <t>16/09/2023 19:57</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.56</v>
+        <v>11.5</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>6.75</v>
+        <v>17.78</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>16/09/2023 19:59</t>
+          <t>16/09/2023 19:57</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-fc-volendam/StXtm3pS/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-nijmegen/8zF9rNhq/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Waalwijk</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.14</v>
+        <v>1.76</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>21/10/2023 18:02</t>
+          <t>21/10/2023 18:44</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>12.21</v>
+        <v>4.82</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>9.73</v>
+        <v>4.24</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         </is>
       </c>
       <c r="R72" t="n">
-        <v>18.64</v>
+        <v>5.87</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>17.33</v>
+        <v>4.41</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>21/10/2023 18:41</t>
+          <t>21/10/2023 18:44</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-sittard/2ekuN9Rb/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/waalwijk-fc-volendam/dIlqMTt5/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Waalwijk</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.76</v>
+        <v>1.14</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>21/10/2023 18:44</t>
+          <t>21/10/2023 18:02</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>4.82</v>
+        <v>12.21</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>4.24</v>
+        <v>9.73</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="R73" t="n">
-        <v>5.87</v>
+        <v>18.64</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>4.41</v>
+        <v>17.33</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>21/10/2023 18:44</t>
+          <t>21/10/2023 18:41</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/waalwijk-fc-volendam/dIlqMTt5/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-sittard/2ekuN9Rb/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Heracles</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J78" t="n">
-        <v>4.47</v>
+        <v>2.37</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,48 +7588,48 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>6.03</v>
+        <v>2.31</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
+          <t>22/10/2023 14:27</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
           <t>22/10/2023 14:28</t>
         </is>
       </c>
-      <c r="N78" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="O78" t="inlineStr">
+      <c r="R78" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="S78" t="inlineStr">
         <is>
           <t>09/10/2023 14:42</t>
         </is>
       </c>
-      <c r="P78" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>22/10/2023 14:28</t>
-        </is>
-      </c>
-      <c r="R78" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>09/10/2023 14:42</t>
-        </is>
-      </c>
       <c r="T78" t="n">
-        <v>1.53</v>
+        <v>2.96</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>22/10/2023 14:22</t>
+          <t>22/10/2023 14:24</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/heracles-twente/SKsRD5lo/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-zwolle/QBeaIotU/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Heracles</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>2.37</v>
+        <v>4.47</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.31</v>
+        <v>6.03</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:27</t>
+          <t>22/10/2023 14:28</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.56</v>
+        <v>4.05</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.89</v>
+        <v>4.66</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.97</v>
+        <v>1.75</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.96</v>
+        <v>1.53</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:24</t>
+          <t>22/10/2023 14:22</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-zwolle/QBeaIotU/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/heracles-twente/SKsRD5lo/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>3.04</v>
+        <v>1.54</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>22/10/2023 12:43</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.62</v>
+        <v>1.29</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:26</t>
+          <t>29/10/2023 14:23</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.88</v>
+        <v>4.9</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>22/10/2023 12:43</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.81</v>
+        <v>6.33</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:24</t>
+          <t>29/10/2023 14:29</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.25</v>
+        <v>5.21</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>22/10/2023 12:43</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.61</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:21</t>
+          <t>29/10/2023 14:29</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/fc-volendam-excelsior/Onc5ROIp/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-ajax/I5KxW4AT/</t>
         </is>
       </c>
     </row>
@@ -8485,71 +8485,71 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>1.54</v>
+        <v>3.04</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>22/10/2023 12:43</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.29</v>
+        <v>2.62</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>29/10/2023 14:23</t>
+          <t>29/10/2023 14:26</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>4.9</v>
+        <v>3.88</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>22/10/2023 12:43</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>6.33</v>
+        <v>3.81</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>29/10/2023 14:29</t>
+          <t>29/10/2023 14:24</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>5.21</v>
+        <v>2.25</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>22/10/2023 12:43</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>9.789999999999999</v>
+        <v>2.61</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>29/10/2023 14:29</t>
+          <t>29/10/2023 14:21</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-ajax/I5KxW4AT/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/fc-volendam-excelsior/Onc5ROIp/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Waalwijk</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,63 +8769,63 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>8.58</v>
+        <v>5.11</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>29/10/2023 12:42</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>14.74</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>04/11/2023 18:40</t>
+          <t>04/11/2023 18:43</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>5.63</v>
+        <v>4.63</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>29/10/2023 12:42</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>8.98</v>
+        <v>5.56</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>04/11/2023 18:40</t>
+          <t>04/11/2023 18:43</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>29/10/2023 12:42</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>04/11/2023 18:34</t>
+          <t>04/11/2023 18:35</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/waalwijk-feyenoord/C8w0m6u4/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-az-alkmaar/UqlelnQc/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Waalwijk</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,63 +8861,63 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J92" t="n">
-        <v>5.11</v>
+        <v>8.58</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>29/10/2023 17:13</t>
+          <t>29/10/2023 12:42</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>9.109999999999999</v>
+        <v>14.74</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>04/11/2023 18:43</t>
+          <t>04/11/2023 18:40</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>4.63</v>
+        <v>5.63</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>29/10/2023 17:13</t>
+          <t>29/10/2023 12:42</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>5.56</v>
+        <v>8.98</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>04/11/2023 18:43</t>
+          <t>04/11/2023 18:40</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>29/10/2023 17:13</t>
+          <t>29/10/2023 12:42</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>04/11/2023 18:35</t>
+          <t>04/11/2023 18:34</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-az-alkmaar/UqlelnQc/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/waalwijk-feyenoord/C8w0m6u4/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1.6</v>
+        <v>2.08</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>02/11/2023 20:12</t>
+          <t>28/10/2023 21:12</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.56</v>
+        <v>2.31</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>05/11/2023 14:27</t>
+          <t>05/11/2023 14:21</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>4.52</v>
+        <v>3.65</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>02/11/2023 20:12</t>
+          <t>28/10/2023 21:12</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>4.71</v>
+        <v>3.5</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>05/11/2023 14:27</t>
+          <t>05/11/2023 14:28</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>5.11</v>
+        <v>3.51</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>02/11/2023 20:12</t>
+          <t>28/10/2023 21:12</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>5.55</v>
+        <v>3.24</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>05/11/2023 14:29</t>
+          <t>05/11/2023 14:28</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/nijmegen-fc-volendam/vyc9qOvT/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-sittard/tpqyurmp/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J96" t="n">
-        <v>2.08</v>
+        <v>1.6</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>28/10/2023 21:12</t>
+          <t>02/11/2023 20:12</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.31</v>
+        <v>1.56</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>05/11/2023 14:21</t>
+          <t>05/11/2023 14:27</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.65</v>
+        <v>4.52</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>28/10/2023 21:12</t>
+          <t>02/11/2023 20:12</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.5</v>
+        <v>4.71</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>05/11/2023 14:28</t>
+          <t>05/11/2023 14:27</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.51</v>
+        <v>5.11</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>28/10/2023 21:12</t>
+          <t>02/11/2023 20:12</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.24</v>
+        <v>5.55</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>05/11/2023 14:28</t>
+          <t>05/11/2023 14:29</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-sittard/tpqyurmp/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/nijmegen-fc-volendam/vyc9qOvT/</t>
         </is>
       </c>
     </row>
@@ -10114,6 +10114,190 @@
       <c r="V105" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/netherlands/eredivisie/fc-volendam-sparta-rotterdam/vaFyqC5F/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45242.69791666666</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:30</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:35</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/feyenoord-az-alkmaar/C4oDPN4f/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45242.83333333334</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>2</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:58</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:59</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:59</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/utrecht-excelsior/jepHOsK0/</t>
         </is>
       </c>
     </row>

--- a/2023/netherlands_eredivisie_2023-2024.xlsx
+++ b/2023/netherlands_eredivisie_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V107"/>
+  <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.67</v>
+        <v>1.24</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.47</v>
+        <v>1.15</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>16/09/2023 19:59</t>
+          <t>16/09/2023 19:38</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>4.44</v>
+        <v>7.01</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>4.96</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>16/09/2023 19:59</t>
+          <t>16/09/2023 19:57</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>4.56</v>
+        <v>11.5</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>6.75</v>
+        <v>17.78</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>16/09/2023 19:59</t>
+          <t>16/09/2023 19:57</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-fc-volendam/StXtm3pS/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-nijmegen/8zF9rNhq/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.24</v>
+        <v>1.67</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.15</v>
+        <v>1.47</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>16/09/2023 19:38</t>
+          <t>16/09/2023 19:59</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>7.01</v>
+        <v>4.44</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>9.119999999999999</v>
+        <v>4.96</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>16/09/2023 19:57</t>
+          <t>16/09/2023 19:59</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>11.5</v>
+        <v>4.56</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>17.78</v>
+        <v>6.75</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>16/09/2023 19:57</t>
+          <t>16/09/2023 19:59</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-nijmegen/8zF9rNhq/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-fc-volendam/StXtm3pS/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.93</v>
+        <v>3.43</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.04</v>
+        <v>2.47</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.96</v>
+        <v>4.07</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.8</v>
+        <v>2.02</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.49</v>
+        <v>2.9</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-almere-city/fiHLuLx2/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-ajax/dde444F2/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>3.43</v>
+        <v>1.93</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.47</v>
+        <v>2.04</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>4.07</v>
+        <v>3.96</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.02</v>
+        <v>3.8</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.9</v>
+        <v>3.49</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-ajax/dde444F2/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-almere-city/fiHLuLx2/</t>
         </is>
       </c>
     </row>
@@ -5541,46 +5541,46 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>1.06</v>
+        <v>1.51</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>27/09/2023 18:12</t>
+          <t>23/09/2023 19:12</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 18:44</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>17.77</v>
+        <v>4.75</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>27/09/2023 18:12</t>
+          <t>23/09/2023 19:12</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>25.88</v>
+        <v>4.4</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5588,15 +5588,15 @@
         </is>
       </c>
       <c r="R56" t="n">
-        <v>24.06</v>
+        <v>5.79</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>27/09/2023 18:12</t>
+          <t>23/09/2023 19:12</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>42.53</v>
+        <v>5.93</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-fc-volendam/EFCT8J6l/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/utrecht-almere-city/dv2Y7wMf/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1.51</v>
+        <v>1.06</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>23/09/2023 19:12</t>
+          <t>27/09/2023 18:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
+          <t>30/09/2023 14:21</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>25.88</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="N57" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>23/09/2023 19:12</t>
-        </is>
-      </c>
-      <c r="P57" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Q57" t="inlineStr">
+      <c r="R57" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>42.53</v>
+      </c>
+      <c r="U57" t="inlineStr">
         <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="R57" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>23/09/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T57" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>30/09/2023 18:44</t>
-        </is>
-      </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/utrecht-almere-city/dv2Y7wMf/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-fc-volendam/EFCT8J6l/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Heracles</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,63 +5917,63 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>2.83</v>
+        <v>2.09</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>28/09/2023 19:12</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3.17</v>
+        <v>2.44</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>01/10/2023 14:20</t>
+          <t>01/10/2023 14:24</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.52</v>
+        <v>4.05</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>28/09/2023 19:12</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.54</v>
+        <v>3.69</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>01/10/2023 14:20</t>
+          <t>01/10/2023 14:27</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.49</v>
+        <v>3.19</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>28/09/2023 19:12</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.33</v>
+        <v>2.88</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>01/10/2023 14:20</t>
+          <t>01/10/2023 14:27</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-sparta-rotterdam/KCXlChDt/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/heracles-zwolle/rmALTKrE/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Heracles</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,63 +6009,63 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>2.09</v>
+        <v>2.83</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>28/09/2023 19:12</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.44</v>
+        <v>3.17</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:24</t>
+          <t>01/10/2023 14:20</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>4.05</v>
+        <v>3.52</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>28/09/2023 19:12</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.69</v>
+        <v>3.54</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:27</t>
+          <t>01/10/2023 14:20</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.19</v>
+        <v>2.49</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>28/09/2023 19:12</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.88</v>
+        <v>2.33</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:27</t>
+          <t>01/10/2023 14:20</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/heracles-zwolle/rmALTKrE/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-sparta-rotterdam/KCXlChDt/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>2.24</v>
+        <v>4.64</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.7</v>
+        <v>4.8</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.77</v>
+        <v>4.14</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.74</v>
+        <v>4.04</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.06</v>
+        <v>1.71</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.56</v>
+        <v>1.74</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/ajax-az-alkmaar/jHLM4SBU/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-twente/SxcSPBst/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>4.64</v>
+        <v>2.24</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>4.14</v>
+        <v>3.77</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>4.04</v>
+        <v>3.74</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="R70" t="n">
-        <v>1.71</v>
+        <v>3.06</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>1.74</v>
+        <v>2.56</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-twente/SxcSPBst/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/ajax-az-alkmaar/jHLM4SBU/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Waalwijk</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.76</v>
+        <v>1.14</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>21/10/2023 18:44</t>
+          <t>21/10/2023 18:02</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>4.82</v>
+        <v>12.21</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>4.24</v>
+        <v>9.73</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         </is>
       </c>
       <c r="R72" t="n">
-        <v>5.87</v>
+        <v>18.64</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>4.41</v>
+        <v>17.33</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>21/10/2023 18:44</t>
+          <t>21/10/2023 18:41</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/waalwijk-fc-volendam/dIlqMTt5/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-sittard/2ekuN9Rb/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Waalwijk</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.14</v>
+        <v>1.76</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>21/10/2023 18:02</t>
+          <t>21/10/2023 18:44</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>12.21</v>
+        <v>4.82</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>9.73</v>
+        <v>4.24</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="R73" t="n">
-        <v>18.64</v>
+        <v>5.87</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>17.33</v>
+        <v>4.41</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>21/10/2023 18:41</t>
+          <t>21/10/2023 18:44</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-sittard/2ekuN9Rb/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/waalwijk-fc-volendam/dIlqMTt5/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J95" t="n">
-        <v>2.08</v>
+        <v>1.6</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>28/10/2023 21:12</t>
+          <t>02/11/2023 20:12</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.31</v>
+        <v>1.56</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>05/11/2023 14:21</t>
+          <t>05/11/2023 14:27</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.65</v>
+        <v>4.52</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>28/10/2023 21:12</t>
+          <t>02/11/2023 20:12</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.5</v>
+        <v>4.71</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>05/11/2023 14:28</t>
+          <t>05/11/2023 14:27</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.51</v>
+        <v>5.11</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>28/10/2023 21:12</t>
+          <t>02/11/2023 20:12</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>3.24</v>
+        <v>5.55</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>05/11/2023 14:28</t>
+          <t>05/11/2023 14:29</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-sittard/tpqyurmp/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/nijmegen-fc-volendam/vyc9qOvT/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.6</v>
+        <v>2.08</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>02/11/2023 20:12</t>
+          <t>28/10/2023 21:12</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.56</v>
+        <v>2.31</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>05/11/2023 14:27</t>
+          <t>05/11/2023 14:21</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>4.52</v>
+        <v>3.65</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>02/11/2023 20:12</t>
+          <t>28/10/2023 21:12</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>4.71</v>
+        <v>3.5</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>05/11/2023 14:27</t>
+          <t>05/11/2023 14:28</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>5.11</v>
+        <v>3.51</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>02/11/2023 20:12</t>
+          <t>28/10/2023 21:12</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>5.55</v>
+        <v>3.24</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>05/11/2023 14:29</t>
+          <t>05/11/2023 14:28</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/nijmegen-fc-volendam/vyc9qOvT/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-sittard/tpqyurmp/</t>
         </is>
       </c>
     </row>
@@ -10298,6 +10298,834 @@
       <c r="V107" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/netherlands/eredivisie/utrecht-excelsior/jepHOsK0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45255.6875</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>4</v>
+      </c>
+      <c r="J108" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:24</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:24</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:21</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-feyenoord/8WvMN1Z6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45255.78125</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>3</v>
+      </c>
+      <c r="J109" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:41</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:41</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>2</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:41</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-psv/0QR7o5RD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45255.78125</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>3</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Sittard</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/heerenveen-sittard/nNwQMLlD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45255.875</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>5</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>13/11/2023 09:49</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:54</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>13/11/2023 09:49</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:38</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>13/11/2023 09:49</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:38</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/ajax-vitesse/ETVBpPtK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45255.875</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Zwolle</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Waalwijk</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>2</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:37</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:37</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:37</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-waalwijk/dhLGqqdQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45256.51041666666</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>5</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:14</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:14</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:14</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/almere-city-heracles/b17ru34s/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45256.60416666666</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>3</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>FC Volendam</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:26</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:29</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>14.91</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:29</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/az-alkmaar-fc-volendam/pI5jwsZg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45256.60416666666</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>G.A. Eagles</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:29</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:25</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:29</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/nijmegen-g-a-eagles/6R6nvNJm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45256.69791666666</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>2</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:41</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:40</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:41</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sparta-rotterdam-utrecht/Steex1l0/</t>
         </is>
       </c>
     </row>

--- a/2023/netherlands_eredivisie_2023-2024.xlsx
+++ b/2023/netherlands_eredivisie_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V116"/>
+  <dimension ref="A1:V117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="G109" t="n">
+        <v>3</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Sittard</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>PSV</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
-        <v>3</v>
-      </c>
       <c r="J109" t="n">
-        <v>3.37</v>
+        <v>1.92</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>3.65</v>
+        <v>2.02</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>25/11/2023 18:41</t>
+          <t>25/11/2023 18:42</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>4.11</v>
+        <v>3.86</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.76</v>
+        <v>3.44</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>25/11/2023 18:41</t>
+          <t>25/11/2023 18:42</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>2</v>
+        <v>3.85</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>2.05</v>
+        <v>4.13</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>25/11/2023 18:41</t>
+          <t>25/11/2023 18:42</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-psv/0QR7o5RD/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/heerenveen-sittard/nNwQMLlD/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
         <v>3</v>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Sittard</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
       <c r="J110" t="n">
-        <v>1.92</v>
+        <v>3.37</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.02</v>
+        <v>3.65</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>25/11/2023 18:42</t>
+          <t>25/11/2023 18:41</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.86</v>
+        <v>4.11</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.44</v>
+        <v>3.76</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>25/11/2023 18:42</t>
+          <t>25/11/2023 18:41</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>3.85</v>
+        <v>2</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>4.13</v>
+        <v>2.05</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>25/11/2023 18:42</t>
+          <t>25/11/2023 18:41</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/heerenveen-sittard/nNwQMLlD/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-psv/0QR7o5RD/</t>
         </is>
       </c>
     </row>
@@ -11126,6 +11126,98 @@
       <c r="V116" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/netherlands/eredivisie/sparta-rotterdam-utrecht/Steex1l0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45261.83333333334</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>3</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>01/12/2023 19:55</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>01/12/2023 19:57</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>01/12/2023 19:57</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/heerenveen-almere-city/tpaayL36/</t>
         </is>
       </c>
     </row>

--- a/2023/netherlands_eredivisie_2023-2024.xlsx
+++ b/2023/netherlands_eredivisie_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V117"/>
+  <dimension ref="A1:V121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5541,71 +5541,71 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>1.51</v>
+        <v>1.06</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>23/09/2023 19:12</t>
+          <t>27/09/2023 18:12</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
+          <t>30/09/2023 14:21</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>25.88</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="N56" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>23/09/2023 19:12</t>
-        </is>
-      </c>
-      <c r="P56" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Q56" t="inlineStr">
+      <c r="R56" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>42.53</v>
+      </c>
+      <c r="U56" t="inlineStr">
         <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="R56" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>23/09/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T56" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>30/09/2023 18:44</t>
-        </is>
-      </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/utrecht-almere-city/dv2Y7wMf/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-fc-volendam/EFCT8J6l/</t>
         </is>
       </c>
     </row>
@@ -5633,46 +5633,46 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>1.06</v>
+        <v>1.51</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>27/09/2023 18:12</t>
+          <t>23/09/2023 19:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 18:44</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>17.77</v>
+        <v>4.75</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>27/09/2023 18:12</t>
+          <t>23/09/2023 19:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>25.88</v>
+        <v>4.4</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -5680,15 +5680,15 @@
         </is>
       </c>
       <c r="R57" t="n">
-        <v>24.06</v>
+        <v>5.79</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>27/09/2023 18:12</t>
+          <t>23/09/2023 19:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>42.53</v>
+        <v>5.93</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-fc-volendam/EFCT8J6l/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/utrecht-almere-city/dv2Y7wMf/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>4.64</v>
+        <v>2.24</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.14</v>
+        <v>3.77</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.04</v>
+        <v>3.74</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="R69" t="n">
-        <v>1.71</v>
+        <v>3.06</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>1.74</v>
+        <v>2.56</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-twente/SxcSPBst/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/ajax-az-alkmaar/jHLM4SBU/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>2.24</v>
+        <v>4.64</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.7</v>
+        <v>4.8</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.77</v>
+        <v>4.14</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.74</v>
+        <v>4.04</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.06</v>
+        <v>1.71</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.56</v>
+        <v>1.74</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/ajax-az-alkmaar/jHLM4SBU/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-twente/SxcSPBst/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.37</v>
+        <v>1.13</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>21/10/2023 20:44</t>
+          <t>21/10/2023 20:47</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>6.01</v>
+        <v>7.19</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>5.4</v>
+        <v>10.29</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>21/10/2023 20:58</t>
+          <t>21/10/2023 20:59</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>9.210000000000001</v>
+        <v>11.29</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>8.83</v>
+        <v>20.67</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>21/10/2023 20:58</t>
+          <t>21/10/2023 20:59</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/az-alkmaar-heerenveen/hprhK7BH/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/feyenoord-vitesse/O4jyOkCh/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.13</v>
+        <v>1.37</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>21/10/2023 20:47</t>
+          <t>21/10/2023 20:44</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>7.19</v>
+        <v>6.01</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>10.29</v>
+        <v>5.4</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>21/10/2023 20:59</t>
+          <t>21/10/2023 20:58</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>11.29</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>20.67</v>
+        <v>8.83</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>21/10/2023 20:59</t>
+          <t>21/10/2023 20:58</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/feyenoord-vitesse/O4jyOkCh/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/az-alkmaar-heerenveen/hprhK7BH/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>1.54</v>
+        <v>3.04</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>22/10/2023 12:43</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.29</v>
+        <v>2.62</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:23</t>
+          <t>29/10/2023 14:26</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>4.9</v>
+        <v>3.88</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>22/10/2023 12:43</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>6.33</v>
+        <v>3.81</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:29</t>
+          <t>29/10/2023 14:24</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>5.21</v>
+        <v>2.25</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>22/10/2023 12:43</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>9.789999999999999</v>
+        <v>2.61</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:29</t>
+          <t>29/10/2023 14:21</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-ajax/I5KxW4AT/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/fc-volendam-excelsior/Onc5ROIp/</t>
         </is>
       </c>
     </row>
@@ -8485,71 +8485,71 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>3.04</v>
+        <v>1.54</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>22/10/2023 12:43</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.62</v>
+        <v>1.29</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>29/10/2023 14:26</t>
+          <t>29/10/2023 14:23</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.88</v>
+        <v>4.9</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>22/10/2023 12:43</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.81</v>
+        <v>6.33</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>29/10/2023 14:24</t>
+          <t>29/10/2023 14:29</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>2.25</v>
+        <v>5.21</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>22/10/2023 12:43</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>2.61</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>29/10/2023 14:21</t>
+          <t>29/10/2023 14:29</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/fc-volendam-excelsior/Onc5ROIp/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-ajax/I5KxW4AT/</t>
         </is>
       </c>
     </row>
@@ -9957,71 +9957,71 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J104" t="n">
-        <v>4.82</v>
+        <v>3.3</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>06/11/2023 07:04</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>5.52</v>
+        <v>3.16</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>12/11/2023 14:27</t>
+          <t>12/11/2023 14:25</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>4.65</v>
+        <v>3.84</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>06/11/2023 07:04</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>4.94</v>
+        <v>3.83</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>12/11/2023 14:23</t>
+          <t>12/11/2023 14:25</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>1.61</v>
+        <v>2.1</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>06/11/2023 07:04</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>1.54</v>
+        <v>2.22</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>12/11/2023 14:21</t>
+          <t>12/11/2023 14:25</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/almere-city-ajax/KdT5Rqzr/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/fc-volendam-sparta-rotterdam/vaFyqC5F/</t>
         </is>
       </c>
     </row>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J105" t="n">
-        <v>3.3</v>
+        <v>4.82</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>06/11/2023 07:04</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>3.16</v>
+        <v>5.52</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>12/11/2023 14:25</t>
+          <t>12/11/2023 14:27</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.84</v>
+        <v>4.65</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>06/11/2023 07:04</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.83</v>
+        <v>4.94</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>12/11/2023 14:25</t>
+          <t>12/11/2023 14:23</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>2.1</v>
+        <v>1.61</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>06/11/2023 07:04</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.22</v>
+        <v>1.54</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>12/11/2023 14:25</t>
+          <t>12/11/2023 14:21</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/fc-volendam-sparta-rotterdam/vaFyqC5F/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/almere-city-ajax/KdT5Rqzr/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
         <v>3</v>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Sittard</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
       <c r="J109" t="n">
-        <v>1.92</v>
+        <v>3.37</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.02</v>
+        <v>3.65</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>25/11/2023 18:42</t>
+          <t>25/11/2023 18:41</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.86</v>
+        <v>4.11</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.44</v>
+        <v>3.76</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>25/11/2023 18:42</t>
+          <t>25/11/2023 18:41</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>3.85</v>
+        <v>2</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>4.13</v>
+        <v>2.05</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>25/11/2023 18:42</t>
+          <t>25/11/2023 18:41</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/heerenveen-sittard/nNwQMLlD/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-psv/0QR7o5RD/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="G110" t="n">
+        <v>3</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Sittard</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>PSV</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
-        <v>3</v>
-      </c>
       <c r="J110" t="n">
-        <v>3.37</v>
+        <v>1.92</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>3.65</v>
+        <v>2.02</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>25/11/2023 18:41</t>
+          <t>25/11/2023 18:42</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>4.11</v>
+        <v>3.86</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.76</v>
+        <v>3.44</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>25/11/2023 18:41</t>
+          <t>25/11/2023 18:42</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>2</v>
+        <v>3.85</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>2.05</v>
+        <v>4.13</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>25/11/2023 18:41</t>
+          <t>25/11/2023 18:42</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-psv/0QR7o5RD/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/heerenveen-sittard/nNwQMLlD/</t>
         </is>
       </c>
     </row>
@@ -10601,71 +10601,71 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Waalwijk</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="n">
-        <v>1.37</v>
+        <v>1.78</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>13/11/2023 09:49</t>
+          <t>12/11/2023 15:42</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.31</v>
+        <v>2.04</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>25/11/2023 20:54</t>
+          <t>25/11/2023 20:37</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>5.63</v>
+        <v>3.97</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>13/11/2023 09:49</t>
+          <t>12/11/2023 15:42</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>6.46</v>
+        <v>3.78</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>25/11/2023 20:38</t>
+          <t>25/11/2023 20:37</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>6.3</v>
+        <v>4.39</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>13/11/2023 09:49</t>
+          <t>12/11/2023 15:42</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>8.4</v>
+        <v>3.65</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>25/11/2023 20:38</t>
+          <t>25/11/2023 20:37</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/ajax-vitesse/ETVBpPtK/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-waalwijk/dhLGqqdQ/</t>
         </is>
       </c>
     </row>
@@ -10693,71 +10693,71 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Waalwijk</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>1.78</v>
+        <v>1.37</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>12/11/2023 15:42</t>
+          <t>13/11/2023 09:49</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.04</v>
+        <v>1.31</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>25/11/2023 20:37</t>
+          <t>25/11/2023 20:54</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.97</v>
+        <v>5.63</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>12/11/2023 15:42</t>
+          <t>13/11/2023 09:49</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.78</v>
+        <v>6.46</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>25/11/2023 20:37</t>
+          <t>25/11/2023 20:38</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>4.39</v>
+        <v>6.3</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>12/11/2023 15:42</t>
+          <t>13/11/2023 09:49</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>3.65</v>
+        <v>8.4</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>25/11/2023 20:37</t>
+          <t>25/11/2023 20:38</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-waalwijk/dhLGqqdQ/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/ajax-vitesse/ETVBpPtK/</t>
         </is>
       </c>
     </row>
@@ -10877,71 +10877,71 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>G.A. Eagles</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>1.16</v>
+        <v>2.08</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>12/11/2023 17:12</t>
+          <t>12/11/2023 15:42</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.18</v>
+        <v>2.25</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>26/11/2023 14:26</t>
+          <t>26/11/2023 14:29</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>8.99</v>
+        <v>3.85</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>12/11/2023 17:12</t>
+          <t>12/11/2023 15:42</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>8.44</v>
+        <v>3.67</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
+          <t>26/11/2023 14:25</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
           <t>26/11/2023 14:29</t>
         </is>
       </c>
-      <c r="R114" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="S114" t="inlineStr">
-        <is>
-          <t>12/11/2023 17:12</t>
-        </is>
-      </c>
-      <c r="T114" t="n">
-        <v>14.91</v>
-      </c>
-      <c r="U114" t="inlineStr">
-        <is>
-          <t>26/11/2023 14:29</t>
-        </is>
-      </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/az-alkmaar-fc-volendam/pI5jwsZg/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/nijmegen-g-a-eagles/6R6nvNJm/</t>
         </is>
       </c>
     </row>
@@ -10969,62 +10969,62 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>G.A. Eagles</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>2.08</v>
+        <v>1.16</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>12/11/2023 15:42</t>
+          <t>12/11/2023 17:12</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>2.25</v>
+        <v>1.18</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
+          <t>26/11/2023 14:26</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
           <t>26/11/2023 14:29</t>
         </is>
       </c>
-      <c r="N115" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>12/11/2023 15:42</t>
-        </is>
-      </c>
-      <c r="P115" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="Q115" t="inlineStr">
-        <is>
-          <t>26/11/2023 14:25</t>
-        </is>
-      </c>
       <c r="R115" t="n">
-        <v>3.34</v>
+        <v>14.18</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>12/11/2023 15:42</t>
+          <t>12/11/2023 17:12</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>3.22</v>
+        <v>14.91</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/nijmegen-g-a-eagles/6R6nvNJm/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/az-alkmaar-fc-volendam/pI5jwsZg/</t>
         </is>
       </c>
     </row>
@@ -11218,6 +11218,374 @@
       <c r="V117" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/netherlands/eredivisie/heerenveen-almere-city/tpaayL36/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45262.78125</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>FC Volendam</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Zwolle</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>5</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:36</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:36</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:36</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/fc-volendam-zwolle/Ecc7ZbYI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45262.83333333334</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Sittard</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>3</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>25/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>02/12/2023 19:34</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>25/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>02/12/2023 19:34</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>25/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>02/12/2023 19:34</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-vitesse/jFtjbrBJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45262.83333333334</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Waalwijk</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>2</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>2</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>25/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>02/12/2023 19:36</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>25/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>02/12/2023 19:58</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>25/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>02/12/2023 19:36</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/waalwijk-excelsior/U5ufc2QP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45262.875</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:57</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:57</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:46</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/heracles-sparta-rotterdam/z7b3zuJC/</t>
         </is>
       </c>
     </row>

--- a/2023/netherlands_eredivisie_2023-2024.xlsx
+++ b/2023/netherlands_eredivisie_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V121"/>
+  <dimension ref="A1:V145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>G.A. Eagles</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.19</v>
+        <v>1.54</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:25</t>
+          <t>13/08/2023 14:27</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>7.61</v>
+        <v>5.51</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>7.38</v>
+        <v>4.41</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:29</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>12.86</v>
+        <v>7.89</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>16.76</v>
+        <v>6.35</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:29</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/feyenoord-sittard/6ZGlMZuC/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/az-alkmaar-g-a-eagles/SrIpNFQ5/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>G.A. Eagles</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.54</v>
+        <v>1.19</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>13/08/2023 14:27</t>
+          <t>13/08/2023 14:25</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>5.51</v>
+        <v>7.61</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>4.41</v>
+        <v>7.38</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:29</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>7.89</v>
+        <v>12.86</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>6.35</v>
+        <v>16.76</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:29</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/az-alkmaar-g-a-eagles/SrIpNFQ5/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/feyenoord-sittard/6ZGlMZuC/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>6.57</v>
+        <v>4.17</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4.81</v>
+        <v>6.58</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>03/09/2023 14:29</t>
+          <t>03/09/2023 14:28</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>5.43</v>
+        <v>4.3</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>4.32</v>
+        <v>5.07</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>03/09/2023 14:29</t>
+          <t>03/09/2023 14:26</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>1.43</v>
+        <v>1.78</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>1.69</v>
+        <v>1.47</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>03/09/2023 14:29</t>
+          <t>03/09/2023 13:55</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-ajax/0UuQjoo3/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/fc-volendam-twente/MwsMiRVd/</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -3341,14 +3341,14 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>4.17</v>
+        <v>6.57</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>6.58</v>
+        <v>4.81</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>03/09/2023 14:28</t>
+          <t>03/09/2023 14:29</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>4.3</v>
+        <v>5.43</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>5.07</v>
+        <v>4.32</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>03/09/2023 14:26</t>
+          <t>03/09/2023 14:29</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>1.78</v>
+        <v>1.43</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>1.47</v>
+        <v>1.69</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>03/09/2023 13:55</t>
+          <t>03/09/2023 14:29</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/fc-volendam-twente/MwsMiRVd/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-ajax/0UuQjoo3/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>3.43</v>
+        <v>1.93</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.47</v>
+        <v>2.04</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>4.07</v>
+        <v>3.96</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.02</v>
+        <v>3.8</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.9</v>
+        <v>3.49</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-ajax/dde444F2/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-almere-city/fiHLuLx2/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.93</v>
+        <v>3.43</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.04</v>
+        <v>2.47</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.96</v>
+        <v>4.07</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.8</v>
+        <v>2.02</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.49</v>
+        <v>2.9</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-almere-city/fiHLuLx2/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-ajax/dde444F2/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Heracles</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,63 +5917,63 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>2.09</v>
+        <v>2.83</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>28/09/2023 19:12</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.44</v>
+        <v>3.17</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>01/10/2023 14:24</t>
+          <t>01/10/2023 14:20</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4.05</v>
+        <v>3.52</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>28/09/2023 19:12</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.69</v>
+        <v>3.54</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>01/10/2023 14:27</t>
+          <t>01/10/2023 14:20</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.19</v>
+        <v>2.49</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>28/09/2023 19:12</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.88</v>
+        <v>2.33</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>01/10/2023 14:27</t>
+          <t>01/10/2023 14:20</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/heracles-zwolle/rmALTKrE/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-sparta-rotterdam/KCXlChDt/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Heracles</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,63 +6009,63 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>2.83</v>
+        <v>2.09</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>28/09/2023 19:12</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>3.17</v>
+        <v>2.44</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:20</t>
+          <t>01/10/2023 14:24</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.52</v>
+        <v>4.05</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>28/09/2023 19:12</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.54</v>
+        <v>3.69</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:20</t>
+          <t>01/10/2023 14:27</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.49</v>
+        <v>3.19</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>28/09/2023 19:12</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.33</v>
+        <v>2.88</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:20</t>
+          <t>01/10/2023 14:27</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-sparta-rotterdam/KCXlChDt/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/heracles-zwolle/rmALTKrE/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1.6</v>
+        <v>2.08</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>02/11/2023 20:12</t>
+          <t>28/10/2023 21:12</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.56</v>
+        <v>2.31</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>05/11/2023 14:27</t>
+          <t>05/11/2023 14:21</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>4.52</v>
+        <v>3.65</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>02/11/2023 20:12</t>
+          <t>28/10/2023 21:12</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>4.71</v>
+        <v>3.5</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>05/11/2023 14:27</t>
+          <t>05/11/2023 14:28</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>5.11</v>
+        <v>3.51</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>02/11/2023 20:12</t>
+          <t>28/10/2023 21:12</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>5.55</v>
+        <v>3.24</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>05/11/2023 14:29</t>
+          <t>05/11/2023 14:28</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/nijmegen-fc-volendam/vyc9qOvT/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-sittard/tpqyurmp/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J96" t="n">
-        <v>2.08</v>
+        <v>1.6</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>28/10/2023 21:12</t>
+          <t>02/11/2023 20:12</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.31</v>
+        <v>1.56</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>05/11/2023 14:21</t>
+          <t>05/11/2023 14:27</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.65</v>
+        <v>4.52</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>28/10/2023 21:12</t>
+          <t>02/11/2023 20:12</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.5</v>
+        <v>4.71</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>05/11/2023 14:28</t>
+          <t>05/11/2023 14:27</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.51</v>
+        <v>5.11</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>28/10/2023 21:12</t>
+          <t>02/11/2023 20:12</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.24</v>
+        <v>5.55</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>05/11/2023 14:28</t>
+          <t>05/11/2023 14:29</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-sittard/tpqyurmp/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/nijmegen-fc-volendam/vyc9qOvT/</t>
         </is>
       </c>
     </row>
@@ -10601,71 +10601,71 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Waalwijk</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>1.78</v>
+        <v>1.37</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>12/11/2023 15:42</t>
+          <t>13/11/2023 09:49</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.04</v>
+        <v>1.31</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>25/11/2023 20:37</t>
+          <t>25/11/2023 20:54</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.97</v>
+        <v>5.63</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>12/11/2023 15:42</t>
+          <t>13/11/2023 09:49</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.78</v>
+        <v>6.46</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>25/11/2023 20:37</t>
+          <t>25/11/2023 20:38</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>4.39</v>
+        <v>6.3</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>12/11/2023 15:42</t>
+          <t>13/11/2023 09:49</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>3.65</v>
+        <v>8.4</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>25/11/2023 20:37</t>
+          <t>25/11/2023 20:38</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-waalwijk/dhLGqqdQ/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/ajax-vitesse/ETVBpPtK/</t>
         </is>
       </c>
     </row>
@@ -10693,71 +10693,71 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Waalwijk</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="n">
-        <v>1.37</v>
+        <v>1.78</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>13/11/2023 09:49</t>
+          <t>12/11/2023 15:42</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.31</v>
+        <v>2.04</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>25/11/2023 20:54</t>
+          <t>25/11/2023 20:37</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>5.63</v>
+        <v>3.97</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>13/11/2023 09:49</t>
+          <t>12/11/2023 15:42</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>6.46</v>
+        <v>3.78</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>25/11/2023 20:38</t>
+          <t>25/11/2023 20:37</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>6.3</v>
+        <v>4.39</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>13/11/2023 09:49</t>
+          <t>12/11/2023 15:42</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>8.4</v>
+        <v>3.65</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>25/11/2023 20:38</t>
+          <t>25/11/2023 20:37</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/ajax-vitesse/ETVBpPtK/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-waalwijk/dhLGqqdQ/</t>
         </is>
       </c>
     </row>
@@ -11586,6 +11586,2214 @@
       <c r="V121" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/netherlands/eredivisie/heracles-sparta-rotterdam/z7b3zuJC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45263.51041666666</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>2</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>25/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:54</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>25/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:10</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>25/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:06</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/feyenoord-psv/noSLhMYt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45263.60416666666</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>G.A. Eagles</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>3</v>
+      </c>
+      <c r="J123" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:18</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:22</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:22</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/g-a-eagles-twente/bLVPitlm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45263.60416666666</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>2</v>
+      </c>
+      <c r="J124" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:29</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:29</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:29</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/nijmegen-ajax/tpLUj03g/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45263.69791666666</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:39</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/utrecht-az-alkmaar/KzKYkKIa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45266.79166666666</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>2</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:28</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:28</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:44</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:44</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:44</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:44</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/az-alkmaar-nijmegen/2wd9QrYj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45266.83333333334</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Waalwijk</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>2</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>3</v>
+      </c>
+      <c r="J127" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:46</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:46</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:46</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:46</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:46</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:46</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/waalwijk-ajax/As6x7cy1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45267.78125</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>2</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>07/12/2023 18:16</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>07/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>07/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-heerenveen/APComI2I/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45267.875</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>3</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>FC Volendam</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>07/12/2023 15:39</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>21.68</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>07/12/2023 20:54</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>41.53</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>07/12/2023 20:54</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/feyenoord-fc-volendam/lAOxkvY5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45268.83333333334</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>4</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>2</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:43</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>08/12/2023 17:38</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:43</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>08/12/2023 19:47</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:43</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>08/12/2023 19:47</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-excelsior/S0NtlbmC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45269.78125</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>2</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:43</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:41</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:43</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:43</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/ajax-sparta-rotterdam/phMa4JXh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45269.83333333334</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Zwolle</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>3</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:43</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>09/12/2023 19:47</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:43</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>09/12/2023 19:47</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:43</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>09/12/2023 19:47</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-nijmegen/OSGknxIO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45269.875</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>4</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:31</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/az-alkmaar-almere-city/xW4XALfP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45270.51041666666</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>G.A. Eagles</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>2</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:14</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:14</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:14</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/g-a-eagles-utrecht/vuia6u3t/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45270.60416666666</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Sittard</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Waalwijk</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:43</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:29</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:43</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:24</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:43</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:21</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sittard-waalwijk/61Ne5aIn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45270.69791666666</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:27</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:21</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:44</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/vitesse-heracles/vFL33wma/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45275.83333333334</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>4</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Sittard</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>15/12/2023 18:33</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>15/12/2023 19:14</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>15/12/2023 19:28</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/nijmegen-sittard/hIP72c25/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45276.6875</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Waalwijk</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:07</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/utrecht-waalwijk/zsFC1HHB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45276.78125</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>G.A. Eagles</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:41</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:40</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:41</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-g-a-eagles/r7IKaenO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45276.875</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>FC Volendam</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>2</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>16/12/2023 20:17</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>16/12/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>16/12/2023 20:58</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/heerenveen-fc-volendam/EXDG0yXH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45277.51041666666</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>5</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>17/12/2023 11:48</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>17/12/2023 11:48</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:14</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/almere-city-vitesse/McHObF1U/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45277.60416666666</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>4</v>
+      </c>
+      <c r="J142" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:28</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:28</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:21</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/heracles-feyenoord/nLrVJbXu/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45277.60416666666</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>2</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>2</v>
+      </c>
+      <c r="J143" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:28</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:30</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T143" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:21</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sparta-rotterdam-twente/benZIInn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45277.69791666666</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>2</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Zwolle</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>2</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:35</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:38</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:38</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/ajax-zwolle/hIowIx2h/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45277.83333333334</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>4</v>
+      </c>
+      <c r="J145" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>10/12/2023 20:13</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:59</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>10/12/2023 20:13</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:59</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>10/12/2023 20:13</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:59</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/az-alkmaar-psv/W8psHdHb/</t>
         </is>
       </c>
     </row>
